--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P14_trail14 Features.xlsx
@@ -4593,7 +4593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4604,29 +4604,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4647,115 +4645,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4772,72 +4760,66 @@
         <v>3.573495738710687e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.659932794787653</v>
+        <v>1.324824544050138e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.4150226831020247</v>
+        <v>1.414982513249026e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.324824544050138e-07</v>
+        <v>-0.008761201646538456</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.414982513249026e-06</v>
+        <v>0.1864557365410507</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.008761201646538456</v>
+        <v>0.03484020382038767</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1864557365410507</v>
+        <v>1.902491179565411</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03484020382038767</v>
+        <v>2.335261987438852</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.906188160004285</v>
+        <v>4.487665816703549</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.335261987438852</v>
+        <v>2.35947169297864e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.487665816703549</v>
+        <v>3361024248.314041</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.35947169297864e-17</v>
+        <v>3.576636060607159e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>3361024248.314041</v>
+        <v>266.5373422288903</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.576636060607159e-08</v>
+        <v>7.706895050020901e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>266.5373422288903</v>
+        <v>7.180814358671109</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>7.706895050020901e-05</v>
+        <v>2.02933969962581</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.180814358671109</v>
+        <v>0.003973990673867668</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>2.02933969962581</v>
+        <v>4.267474583625201</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.003973990673867668</v>
+        <v>0.9568817122982153</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>4.267474583625201</v>
+        <v>1.364476084854318</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9568817122982153</v>
+        <v>48</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.364476084854318</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.262930447731636</v>
       </c>
     </row>
@@ -4852,72 +4834,66 @@
         <v>3.607762698964278e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6271126003237103</v>
+        <v>1.338387340261945e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.4301189445795464</v>
+        <v>1.414713959927627e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.338387340261945e-07</v>
+        <v>-0.006274325517414599</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.414713959927627e-06</v>
+        <v>0.1833490599933317</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.006274325517414599</v>
+        <v>0.03365395326939034</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1833490599933317</v>
+        <v>1.901182495878402</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03365395326939034</v>
+        <v>2.344848320928122</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.904293399247935</v>
+        <v>4.59866700397677</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.344848320928122</v>
+        <v>2.246942006157325e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.59866700397677</v>
+        <v>3539253356.959343</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.246942006157325e-17</v>
+        <v>3.396206152492745e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>3539253356.959343</v>
+        <v>281.4590183860645</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.396206152492745e-08</v>
+        <v>0.0001001328071648944</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>281.4590183860645</v>
+        <v>8.226656704079522</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001001328071648944</v>
+        <v>1.58782603383203</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.226656704079522</v>
+        <v>0.006776776160116476</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.58782603383203</v>
+        <v>3.938574056398191</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.006776776160116476</v>
+        <v>0.9586945534652651</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.938574056398191</v>
+        <v>1.388679509170134</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9586945534652651</v>
+        <v>48</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.388679509170134</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.065376597955605</v>
       </c>
     </row>
@@ -4932,72 +4908,66 @@
         <v>3.632952289961127e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.60090084026085</v>
+        <v>1.353347720443048e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.436303359211395</v>
+        <v>1.414530131656214e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.353347720443048e-07</v>
+        <v>-0.00409628646814155</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.414530131656214e-06</v>
+        <v>0.1808619899216335</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.00409628646814155</v>
+        <v>0.03272767254467713</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1808619899216335</v>
+        <v>1.899708094589821</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03272767254467713</v>
+        <v>2.648621112233666</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.903036015736872</v>
+        <v>4.725049837184708</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.648621112233666</v>
+        <v>2.128349775255374e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.725049837184708</v>
+        <v>3738819632.169817</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.128349775255374e-17</v>
+        <v>3.217117385246041e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3738819632.169817</v>
+        <v>297.5171675939062</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.217117385246041e-08</v>
+        <v>0.0001025833294432302</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>297.5171675939062</v>
+        <v>8.93332109099957</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001025833294432302</v>
+        <v>1.341502880232799</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.93332109099957</v>
+        <v>0.008186583177473257</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.341502880232799</v>
+        <v>3.797475323022097</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008186583177473257</v>
+        <v>0.9597131095172028</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.797475323022097</v>
+        <v>1.376213212605699</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9597131095172028</v>
+        <v>59</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.376213212605699</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.9634147415690513</v>
       </c>
     </row>
@@ -5012,72 +4982,66 @@
         <v>3.66672482935883e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.569078219836943</v>
+        <v>1.364866010459571e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.4484388918489106</v>
+        <v>1.414270796030458e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.364866010459571e-07</v>
+        <v>-0.01175248100635649</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.414270796030458e-06</v>
+        <v>0.1679641341877008</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01175248100635649</v>
+        <v>0.02832878032944361</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1679641341877008</v>
+        <v>1.89526505054115</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02832878032944361</v>
+        <v>2.653666868872104</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.895304426145768</v>
+        <v>4.633913712221391</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.653666868872104</v>
+        <v>2.212890395813018e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.633913712221391</v>
+        <v>3603729362.674215</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.212890395813018e-17</v>
+        <v>3.339099655387009e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3603729362.674215</v>
+        <v>287.385095370181</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.339099655387009e-08</v>
+        <v>9.097079565936537e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>287.385095370181</v>
+        <v>8.07296267790522</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>9.097079565936537e-05</v>
+        <v>1.323314228849597</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.07296267790522</v>
+        <v>0.005928814775793568</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.323314228849597</v>
+        <v>3.801411786832109</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005928814775793568</v>
+        <v>0.9597611505851961</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.801411786832109</v>
+        <v>1.364627587978295</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9597611505851961</v>
+        <v>30</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.364627587978295</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.9571279576093512</v>
       </c>
     </row>
@@ -5092,72 +5056,66 @@
         <v>3.729049032189731e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5330626115122721</v>
+        <v>1.373265871347159e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4927482105413934</v>
+        <v>1.413669361199986e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.373265871347159e-07</v>
+        <v>-0.02026582916995643</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.413669361199986e-06</v>
+        <v>0.1510444288895676</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02026582916995643</v>
+        <v>0.02321304954409994</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1510444288895676</v>
+        <v>1.897758175868296</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02321304954409994</v>
+        <v>2.542196227721871</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.896163998897897</v>
+        <v>4.632324558476463</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.542196227721871</v>
+        <v>2.214408953598511e-17</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.632324558476463</v>
+        <v>3578528862.494717</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.214408953598511e-17</v>
+        <v>3.369830605687313e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>3578528862.494717</v>
+        <v>283.574305729688</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.369830605687313e-08</v>
+        <v>8.95244084092996e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>283.574305729688</v>
+        <v>7.094007519840451</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>8.95244084092996e-05</v>
+        <v>1.282614008519426</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.094007519840451</v>
+        <v>0.004505310722693175</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.282614008519426</v>
+        <v>3.797359275006202</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.004505310722693175</v>
+        <v>0.9612282649292911</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.797359275006202</v>
+        <v>1.414457817491749</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9612282649292911</v>
+        <v>45</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.414457817491749</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.9657103438200088</v>
       </c>
     </row>
@@ -5172,72 +5130,66 @@
         <v>3.800042386609878e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5162879657338132</v>
+        <v>1.381030132534941e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.5437594793308898</v>
+        <v>1.412785317959871e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.381030132534941e-07</v>
+        <v>-0.02621263252986462</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.412785317959871e-06</v>
+        <v>0.1396880588967126</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02621263252986462</v>
+        <v>0.02019420138096851</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1396880588967126</v>
+        <v>1.90906574212476</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02019420138096851</v>
+        <v>2.259932448987493</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.909453319683129</v>
+        <v>4.793548364559815</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.259932448987493</v>
+        <v>1.926993947106513e-17</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.793548364559815</v>
+        <v>4313153757.203041</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.926993947106513e-17</v>
+        <v>2.807474476090258e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>4313153757.203041</v>
+        <v>358.484375034552</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.807474476090258e-08</v>
+        <v>9.628592672711077e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>358.484375034552</v>
+        <v>6.906712663388622</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>9.628592672711077e-05</v>
+        <v>1.643775956432449</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.906712663388622</v>
+        <v>0.004593096733316629</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.643775956432449</v>
+        <v>3.811259364619062</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.004593096733316629</v>
+        <v>0.9609421033383456</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.811259364619062</v>
+        <v>1.353225278038914</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9609421033383456</v>
+        <v>43</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.353225278038914</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.03198861217699</v>
       </c>
     </row>
@@ -5252,72 +5204,66 @@
         <v>3.867662254097124e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.5200922411657192</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.5788012820258874</v>
+        <v>1.411701588836961e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.0299443995098181</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.411701588836961e-06</v>
+        <v>0.1326818502622523</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.0299443995098181</v>
+        <v>0.01849869850284543</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1326818502622523</v>
+        <v>1.916420492882214</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01849869850284543</v>
+        <v>2.395670529125138</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.917632639843158</v>
+        <v>4.584052686814791</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.395670529125138</v>
+        <v>1.640886601287638e-17</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.584052686814791</v>
+        <v>5070710647.328787</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.640886601287638e-17</v>
+        <v>2.389433146609694e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>5070710647.328787</v>
+        <v>421.9065099575421</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>2.389433146609694e-08</v>
+        <v>9.98776345644629e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>421.9065099575421</v>
+        <v>6.616153520980843</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9.98776345644629e-05</v>
+        <v>2.19856321042436</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>6.616153520980843</v>
+        <v>0.004371992379466429</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>2.19856321042436</v>
+        <v>3.893313601533435</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.004371992379466429</v>
+        <v>0.9615808623860688</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.893313601533435</v>
+        <v>1.343782075588328</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9615808623860688</v>
+        <v>43</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.343782075588328</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>1.087943917398596</v>
       </c>
     </row>
@@ -5332,72 +5278,66 @@
         <v>3.926424664399131e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5402338707093834</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.5921050947940296</v>
+        <v>1.410492340859637e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.03173734820013863</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.410492340859637e-06</v>
+        <v>0.1286895821499182</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03173734820013863</v>
+        <v>0.01756754757539447</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1286895821499182</v>
+        <v>1.918632433624714</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01756754757539447</v>
+        <v>2.326086714294074</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.914856119590924</v>
+        <v>5.113552847934297</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.326086714294074</v>
+        <v>1.963130252048163e-17</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.113552847934297</v>
+        <v>4154085187.060936</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.963130252048163e-17</v>
+        <v>2.913539946145878e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>4154085187.060936</v>
+        <v>338.7660748882419</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.913539946145878e-08</v>
+        <v>9.32043186328353e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>338.7660748882419</v>
+        <v>6.76070496513695</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>9.32043186328353e-05</v>
+        <v>2.357677719925038</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.76070496513695</v>
+        <v>0.00426010205982792</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>2.357677719925038</v>
+        <v>4.051970333497645</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00426010205982792</v>
+        <v>0.9605238659697676</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.051970333497645</v>
+        <v>1.388857398312272</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9605238659697676</v>
+        <v>43</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.388857398312272</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.114789327969552</v>
       </c>
     </row>
@@ -5412,72 +5352,66 @@
         <v>3.973749473614972e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.5731856068390759</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.5858800235121553</v>
+        <v>1.409231675355868e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.03179020467405395</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.409231675355868e-06</v>
+        <v>0.1268185873525301</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03179020467405395</v>
+        <v>0.01709309553713745</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1268185873525301</v>
+        <v>1.927330618593161</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01709309553713745</v>
+        <v>2.328717349129626</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.926114675083503</v>
+        <v>5.075102252647037</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.328717349129626</v>
+        <v>3.162039977523593e-17</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.075102252647037</v>
+        <v>2517568569.06652</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.162039977523593e-17</v>
+        <v>4.812327886509972e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2517568569.06652</v>
+        <v>200.4148842644823</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.812327886509972e-08</v>
+        <v>8.831410062210771e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>200.4148842644823</v>
+        <v>7.183367092339496</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>8.831410062210771e-05</v>
+        <v>2.045321653907373</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.183367092339496</v>
+        <v>0.004557074956622395</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>2.045321653907373</v>
+        <v>4.031590233204883</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.004557074956622395</v>
+        <v>0.9594549186703418</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.031590233204883</v>
+        <v>1.33938932482001</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9594549186703418</v>
+        <v>42</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.33938932482001</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.000004524946257</v>
       </c>
     </row>
@@ -5492,72 +5426,66 @@
         <v>4.007619507315861e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.6173468527033237</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.5614504605491555</v>
+        <v>1.407984938796346e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.03041609195866939</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.407984938796346e-06</v>
+        <v>0.1266691767616997</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03041609195866939</v>
+        <v>0.01696909543140018</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1266691767616997</v>
+        <v>1.930903812757342</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01696909543140018</v>
+        <v>2.119807940814948</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.926142707232119</v>
+        <v>4.83310836911149</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.119807940814948</v>
+        <v>5.4371645392187e-17</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.83310836911149</v>
+        <v>1390095806.112607</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.4371645392187e-17</v>
+        <v>8.690224969654251e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1390095806.112607</v>
+        <v>105.0659379593389</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>8.690224969654251e-08</v>
+        <v>9.985280842128944e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>105.0659379593389</v>
+        <v>8.264217708226321</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>9.985280842128944e-05</v>
+        <v>1.219671122479453</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.264217708226321</v>
+        <v>0.006819676646322212</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.219671122479453</v>
+        <v>3.672762146445904</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.006819676646322212</v>
+        <v>0.9575794460746374</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.672762146445904</v>
+        <v>1.359137536059871</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9575794460746374</v>
+        <v>42</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.359137536059871</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.7633015734266798</v>
       </c>
     </row>
@@ -5572,72 +5500,66 @@
         <v>4.026240472602295e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.6712096749970697</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.5171814818281919</v>
+        <v>1.406814695332755e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.02755186737358938</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.406814695332755e-06</v>
+        <v>0.1287113946364859</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.02755186737358938</v>
+        <v>0.01732283705978374</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1287113946364859</v>
+        <v>1.929188506228437</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01732283705978374</v>
+        <v>1.929956812910372</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.923209740232177</v>
+        <v>4.3612956939385</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.929956812910372</v>
+        <v>9.554748006115433e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.3612956939385</v>
+        <v>805929635.5730329</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.554748006115433e-17</v>
+        <v>1.498617182010376e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>805929635.5730329</v>
+        <v>62.06024552246176</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.498617182010376e-07</v>
+        <v>0.0001336983055376741</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>62.06024552246176</v>
+        <v>10.15393578038478</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001336983055376741</v>
+        <v>1.146547189732372</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.15393578038478</v>
+        <v>0.01378461775880968</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.146547189732372</v>
+        <v>3.24856123597049</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01378461775880968</v>
+        <v>0.9585755307409678</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.24856123597049</v>
+        <v>1.364867152511906</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9585755307409678</v>
+        <v>42</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.364867152511906</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.5392916038903522</v>
       </c>
     </row>
@@ -5652,72 +5574,66 @@
         <v>4.028502120704968e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.7314548338911543</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.4495240685955881</v>
+        <v>1.405784245898942e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.02338814736113589</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.405784245898942e-06</v>
+        <v>0.1336243114700694</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.02338814736113589</v>
+        <v>0.01839699384155985</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1336243114700694</v>
+        <v>1.91548436919828</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01839699384155985</v>
+        <v>1.940215143953837</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.90432544049476</v>
+        <v>3.767588567483273</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.940215143953837</v>
+        <v>1.280334246270491e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.767588567483273</v>
+        <v>598335239.2992344</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.280334246270491e-16</v>
+        <v>2.00967788843076e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>598335239.2992344</v>
+        <v>45.8366136847358</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.00967788843076e-07</v>
+        <v>0.0001694166826890663</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>45.8366136847358</v>
+        <v>12.0883754456357</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001694166826890663</v>
+        <v>1.077580583718048</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.0883754456357</v>
+        <v>0.02475666008462434</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.077580583718048</v>
+        <v>2.894661335166155</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02475666008462434</v>
+        <v>0.9602283265964464</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.894661335166155</v>
+        <v>1.365088092864297</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9602283265964464</v>
+        <v>42</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.365088092864297</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.4310518044130791</v>
       </c>
     </row>
@@ -5732,72 +5648,66 @@
         <v>4.015745258799397e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.7921001727816359</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.3573036951659088</v>
+        <v>1.404930450832081e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.01924437842979631</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.404930450832081e-06</v>
+        <v>0.1396517892674843</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.01924437842979631</v>
+        <v>0.01986835336010649</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1396517892674843</v>
+        <v>1.842744175507298</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01986835336010649</v>
+        <v>1.878878074306161</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.803751387927466</v>
+        <v>5.191536456852405</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.878878074306161</v>
+        <v>1.762812056598416e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.191536456852405</v>
+        <v>445407723.6588752</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.762812056598416e-16</v>
+        <v>2.645804549954809e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>445407723.6588752</v>
+        <v>34.97208293169247</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.645804549954809e-07</v>
+        <v>0.0001937979227845583</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>34.97208293169247</v>
+        <v>12.12393171478225</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001937979227845583</v>
+        <v>1.155491474824879</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.12393171478225</v>
+        <v>0.0284863024502308</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.155491474824879</v>
+        <v>2.829124781828611</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0284863024502308</v>
+        <v>0.9573482651330203</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.829124781828611</v>
+        <v>1.621017125567597</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9573482651330203</v>
+        <v>43</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.621017125567597</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3813042767789923</v>
       </c>
     </row>
@@ -5812,72 +5722,66 @@
         <v>3.991816515013242e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.8496352885550839</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.243182768059246</v>
+        <v>1.404206603488289e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.01728063084169328</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.404206603488289e-06</v>
+        <v>0.1430731202610687</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.01728063084169328</v>
+        <v>0.02076529666644992</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1430731202610687</v>
+        <v>1.835844006250267</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02076529666644992</v>
+        <v>1.819168703312707</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.789565568008318</v>
+        <v>4.275574488688788</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.819168703312707</v>
+        <v>2.81651962514633e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.275574488688788</v>
+        <v>277623416.7136369</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.81651962514633e-16</v>
+        <v>4.249978951114983e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>277623416.7136369</v>
+        <v>21.70825783900612</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.249978951114983e-07</v>
+        <v>0.0002246993797923261</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>21.70825783900612</v>
+        <v>9.469525413764503</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0002246993797923261</v>
+        <v>1.748137868261393</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.469525413764503</v>
+        <v>0.02014922291275838</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.748137868261393</v>
+        <v>2.873735091233745</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02014922291275838</v>
+        <v>0.9587745953216492</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.873735091233745</v>
+        <v>1.647594087194623</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9587745953216492</v>
+        <v>43</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.647594087194623</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2383508327797681</v>
       </c>
     </row>
@@ -5892,72 +5796,66 @@
         <v>3.956725889632464e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.9066055232717846</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.1013548930362074</v>
+        <v>1.403516997687184e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.01779811079720613</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.403516997687184e-06</v>
+        <v>0.1439072578043811</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.01779811079720613</v>
+        <v>0.02102257545279092</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1439072578043811</v>
+        <v>1.834609635058407</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02102257545279092</v>
+        <v>1.830372915665404</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.78534775461394</v>
+        <v>3.746695023861894</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.830372915665404</v>
+        <v>3.667794954927842e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.746695023861894</v>
+        <v>214547197.1686288</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.667794954927842e-16</v>
+        <v>5.510115267476334e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>214547197.1686288</v>
+        <v>16.88304349866147</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.510115267476334e-07</v>
+        <v>0.0001764253885939794</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>16.88304349866147</v>
+        <v>9.102468406641927</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001764253885939794</v>
+        <v>1.552553592175235</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.102468406641927</v>
+        <v>0.01461771341517124</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.552553592175235</v>
+        <v>2.964138945372556</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01461771341517124</v>
+        <v>0.958309290567362</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.964138945372556</v>
+        <v>1.696810899108847</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.958309290567362</v>
+        <v>43</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.696810899108847</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.195986291010033</v>
       </c>
     </row>
@@ -5972,72 +5870,66 @@
         <v>3.904318901366657e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.9673966485011081</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.08624115750293271</v>
+        <v>1.402761113306878e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.02108962985559929</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.402761113306878e-06</v>
+        <v>0.1418734612611187</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02108962985559929</v>
+        <v>0.02056638518181597</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1418734612611187</v>
+        <v>1.83454298311866</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02056638518181597</v>
+        <v>1.850346292566266</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.785881688467373</v>
+        <v>3.533466670039846</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.850346292566266</v>
+        <v>4.12382035162063e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.533466670039846</v>
+        <v>202025491.7916374</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.12382035162063e-16</v>
+        <v>5.878378902245679e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>202025491.7916374</v>
+        <v>16.83108382292544</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.878378902245679e-07</v>
+        <v>0.0001553378380419144</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>16.83108382292544</v>
+        <v>9.974038195604377</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001553378380419144</v>
+        <v>1.179845013824387</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>9.974038195604377</v>
+        <v>0.01545323149293935</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.179845013824387</v>
+        <v>2.865876023505348</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01545323149293935</v>
+        <v>0.9579660022543307</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.865876023505348</v>
+        <v>1.661997321452488</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9579660022543307</v>
+        <v>40</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.661997321452488</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1878159152593985</v>
       </c>
     </row>
@@ -6052,72 +5944,66 @@
         <v>3.819825617742021e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.032071509095434</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.3430086999690269</v>
+        <v>1.401835453959211e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.0272017629786388</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.401835453959211e-06</v>
+        <v>0.1356712000317209</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.0272017629786388</v>
+        <v>0.01913494672796639</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1356712000317209</v>
+        <v>1.827851753047049</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01913494672796639</v>
+        <v>1.889172136402935</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.774119099448516</v>
+        <v>3.517477125246534</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.889172136402935</v>
+        <v>4.161397215083832e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.517477125246534</v>
+        <v>200337438.5329997</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.161397215083832e-16</v>
+        <v>5.911962279379614e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>200337438.5329997</v>
+        <v>16.7018048748458</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>5.911962279379614e-07</v>
+        <v>0.000158591873182257</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>16.7018048748458</v>
+        <v>10.86702320925154</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.000158591873182257</v>
+        <v>1.112753713692443</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>10.86702320925154</v>
+        <v>0.01872846216433039</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.112753713692443</v>
+        <v>2.675638337633431</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01872846216433039</v>
+        <v>0.9564956743182801</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.675638337633431</v>
+        <v>1.669020734597275</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9564956743182801</v>
+        <v>43</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.669020734597275</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1869258022076924</v>
       </c>
     </row>
@@ -6132,72 +6018,66 @@
         <v>3.683360014355754e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.083784736053526</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.6506622823121266</v>
+        <v>1.400682325954886e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.03371840161071769</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.400682325954886e-06</v>
+        <v>0.1309050806150496</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03371840161071769</v>
+        <v>0.01826842999666762</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1309050806150496</v>
+        <v>1.827283066444823</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01826842999666762</v>
+        <v>1.852858732164128</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.77268639609368</v>
+        <v>3.511290754801456</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.852858732164128</v>
+        <v>4.176073654624637e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.511290754801456</v>
+        <v>198726258.5223771</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>4.176073654624637e-16</v>
+        <v>5.960808397349939e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>198726258.5223771</v>
+        <v>16.49220262283437</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>5.960808397349939e-07</v>
+        <v>0.000162995642645466</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>16.49220262283437</v>
+        <v>10.59626556897098</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.000162995642645466</v>
+        <v>1.146332144712156</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.59626556897098</v>
+        <v>0.01830128832588535</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.146332144712156</v>
+        <v>2.751383114555344</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01830128832588535</v>
+        <v>0.9554798691247564</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.751383114555344</v>
+        <v>1.689794696465472</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9554798691247564</v>
+        <v>26</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.689794696465472</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1792675672930492</v>
       </c>
     </row>
@@ -6212,72 +6092,66 @@
         <v>3.498891593588329e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.096838962650537</v>
+        <v>1.38414644124682e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.9239024612562021</v>
+        <v>1.399395047362219e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.38414644124682e-07</v>
+        <v>-0.03744204773731672</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.399395047362219e-06</v>
+        <v>0.1353102376426477</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.03744204773731672</v>
+        <v>0.01970984268005159</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1353102376426477</v>
+        <v>1.836239204633468</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01970984268005159</v>
+        <v>1.862363453618189</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.779727854580057</v>
+        <v>3.489487005452029</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.862363453618189</v>
+        <v>4.228424349553324e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>3.489487005452029</v>
+        <v>196786226.0581712</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>4.228424349553324e-16</v>
+        <v>6.02844078154488e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>196786226.0581712</v>
+        <v>16.37449666031142</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.02844078154488e-07</v>
+        <v>0.0001877235169918293</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>16.37449666031142</v>
+        <v>9.400051690300613</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001877235169918293</v>
+        <v>1.428094069717794</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.400051690300613</v>
+        <v>0.01658743238741809</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.428094069717794</v>
+        <v>2.809107045552068</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01658743238741809</v>
+        <v>0.955244777291765</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.809107045552068</v>
+        <v>1.657891706265173</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.955244777291765</v>
+        <v>26</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.657891706265173</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1615655829880745</v>
       </c>
     </row>
@@ -6292,72 +6166,66 @@
         <v>3.284327336863945e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.051692064628576</v>
+        <v>1.382818207313074e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.076458981457518</v>
+        <v>1.398096127633392e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.382818207313074e-07</v>
+        <v>-0.03875277365871625</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.398096127633392e-06</v>
+        <v>0.1449051883454929</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03875277365871625</v>
+        <v>0.02249861780299856</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1449051883454929</v>
+        <v>1.826489310002751</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02249861780299856</v>
+        <v>1.87720057830186</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.771337378401477</v>
+        <v>3.487991374738566</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.87720057830186</v>
+        <v>4.232051375270548e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.487991374738566</v>
+        <v>194062974.2005633</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.232051375270548e-16</v>
+        <v>6.087276516297811e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>194062974.2005633</v>
+        <v>15.93809082431548</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.087276516297811e-07</v>
+        <v>0.0001951290243959436</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>15.93809082431548</v>
+        <v>9.268944934306786</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001951290243959436</v>
+        <v>1.501287351160404</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.268944934306786</v>
+        <v>0.01676418625488841</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.501287351160404</v>
+        <v>2.790333697599329</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01676418625488841</v>
+        <v>0.9538943924931721</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.790333697599329</v>
+        <v>1.648114143672277</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9538943924931721</v>
+        <v>9</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.648114143672277</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.1588147929527431</v>
       </c>
     </row>
@@ -6372,72 +6240,66 @@
         <v>3.058185386728861e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.9325744470722864</v>
+        <v>1.355407051937471e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.02941600199596</v>
+        <v>1.396874250852056e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.355407051937471e-07</v>
+        <v>-0.03791126575069831</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.396874250852056e-06</v>
+        <v>0.1570365760025206</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03791126575069831</v>
+        <v>0.02609537229441115</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1570365760025206</v>
+        <v>1.81246070591357</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02609537229441115</v>
+        <v>1.840174057838288</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.753909493270486</v>
+        <v>3.480137198622888</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.840174057838288</v>
+        <v>4.25117521039527e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.480137198622888</v>
+        <v>187868770.3187999</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.25117521039527e-16</v>
+        <v>6.249158391043734e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>187868770.3187999</v>
+        <v>15.00438468284608</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.249158391043734e-07</v>
+        <v>0.0001679647308400429</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>15.00438468284608</v>
+        <v>10.24330168581296</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001679647308400429</v>
+        <v>1.18235771644619</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.24330168581296</v>
+        <v>0.01762373791896504</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.18235771644619</v>
+        <v>2.76081126741432</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01762373791896504</v>
+        <v>0.9549414766081648</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.76081126741432</v>
+        <v>1.680982992358852</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9549414766081648</v>
+        <v>7</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.680982992358852</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.1723805282738805</v>
       </c>
     </row>
@@ -6452,72 +6314,66 @@
         <v>2.838601469562296e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.7319582294977192</v>
+        <v>1.298372629574889e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.7243987164169412</v>
+        <v>1.395791073863768e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.298372629574889e-07</v>
+        <v>-0.03538347830320798</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.395791073863768e-06</v>
+        <v>0.1692091810503336</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.03538347830320798</v>
+        <v>0.02987937848385978</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1692091810503336</v>
+        <v>1.791015779381728</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02987937848385978</v>
+        <v>1.798219882525153</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.726162795883243</v>
+        <v>3.357400447325629</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.798219882525153</v>
+        <v>4.567677656607871e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.357400447325629</v>
+        <v>175871160.9687048</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.567677656607871e-16</v>
+        <v>6.650901748646805e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>175871160.9687048</v>
+        <v>14.12813086143121</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.650901748646805e-07</v>
+        <v>0.0001653900062878794</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>14.12813086143121</v>
+        <v>11.02995023817257</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001653900062878794</v>
+        <v>1.106582107226564</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.02995023817257</v>
+        <v>0.02012131546019513</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.106582107226564</v>
+        <v>2.620221998984343</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.02012131546019513</v>
+        <v>0.9552006112944783</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.620221998984343</v>
+        <v>1.718499480513446</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9552006112944783</v>
+        <v>7</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.718499480513446</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.17888241724113</v>
       </c>
     </row>
@@ -6532,72 +6388,66 @@
         <v>2.640673330815605e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.4665487900214346</v>
+        <v>1.215423087233907e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.1935955608198183</v>
+        <v>1.394864345219685e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.215423087233907e-07</v>
+        <v>-0.03224259597113936</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.394864345219685e-06</v>
+        <v>0.1785410601293083</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.03224259597113936</v>
+        <v>0.03290809939026733</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1785410601293083</v>
+        <v>1.784268167090233</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.03290809939026733</v>
+        <v>1.747797231922935</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.718873186438701</v>
+        <v>3.174468521599214</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.747797231922935</v>
+        <v>5.109279792525048e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.174468521599214</v>
+        <v>159090740.3402573</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>5.109279792525048e-16</v>
+        <v>7.342033783156971e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>159090740.3402573</v>
+        <v>12.93151749598777</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>7.342033783156971e-07</v>
+        <v>0.000169410869267139</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>12.93151749598777</v>
+        <v>10.22582504684829</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.000169410869267139</v>
+        <v>1.199002323541667</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>10.22582504684829</v>
+        <v>0.01771487071442284</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.199002323541667</v>
+        <v>2.772947967901954</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01771487071442284</v>
+        <v>0.9558177765556086</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.772947967901954</v>
+        <v>1.701996192279011</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9558177765556086</v>
+        <v>7</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.701996192279011</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.1679601909932301</v>
       </c>
     </row>
@@ -6612,72 +6462,66 @@
         <v>2.475677914671076e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.1839846455944233</v>
+        <v>1.107923468651275e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.4015443625176958</v>
+        <v>1.394089503049618e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.107923468651275e-07</v>
+        <v>-0.02815757397238494</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.394089503049618e-06</v>
+        <v>0.1832258540951954</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.02815757397238494</v>
+        <v>0.03434878179719152</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1832258540951954</v>
+        <v>1.774139279893681</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03434878179719152</v>
+        <v>1.700106240848823</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.706824633559116</v>
+        <v>3.224339748276921</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.700106240848823</v>
+        <v>4.952450479571607e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.224339748276921</v>
+        <v>165753264.89702</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4.952450479571607e-16</v>
+        <v>7.024560617018434e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>165753264.89702</v>
+        <v>13.60643417095459</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.024560617018434e-07</v>
+        <v>0.0001884101955112887</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>13.60643417095459</v>
+        <v>9.629007408966366</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001884101955112887</v>
+        <v>1.376039572759177</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.629007408966366</v>
+        <v>0.01746897575088565</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.376039572759177</v>
+        <v>2.780016137762425</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01746897575088565</v>
+        <v>0.9573797525570877</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.780016137762425</v>
+        <v>1.710147518683601</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9573797525570877</v>
+        <v>7</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.710147518683601</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.1610585660717651</v>
       </c>
     </row>
@@ -6692,72 +6536,66 @@
         <v>2.353875096107038e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.04685440724393479</v>
+        <v>9.797388509015732e-08</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.8400516335778745</v>
+        <v>1.393480157700691e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>9.797388509015732e-08</v>
+        <v>-0.02224836902121414</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.393480157700691e-06</v>
+        <v>0.1809575834445092</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.02224836902121414</v>
+        <v>0.03322228672201023</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1809575834445092</v>
+        <v>1.766694092839533</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03322228672201023</v>
+        <v>1.66421962010776</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.701778681941845</v>
+        <v>3.413723428971612</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.66421962010776</v>
+        <v>4.418196937265941e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.413723428971612</v>
+        <v>188107474.2594094</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.418196937265941e-16</v>
+        <v>6.180900546344829e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>188107474.2594094</v>
+        <v>15.63353443429201</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>6.180900546344829e-07</v>
+        <v>0.0001903784585712812</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>15.63353443429201</v>
+        <v>9.782067899115889</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001903784585712812</v>
+        <v>1.345449491231963</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.782067899115889</v>
+        <v>0.01821709621911394</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.345449491231963</v>
+        <v>2.74620027113351</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01821709621911394</v>
+        <v>0.9579456845308009</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.74620027113351</v>
+        <v>1.710045123545015</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9579456845308009</v>
+        <v>11</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.710045123545015</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.1715448165319147</v>
       </c>
     </row>
@@ -6772,72 +6610,66 @@
         <v>2.273673112782947e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.1940448647151873</v>
+        <v>8.673093170828792e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.058830098933204</v>
+        <v>1.393032182998993e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>8.673093170828792e-08</v>
+        <v>-0.01669140280641738</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.393032182998993e-06</v>
+        <v>0.1774110564324769</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.01669140280641738</v>
+        <v>0.0317392074913381</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1774110564324769</v>
+        <v>1.767923154233717</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.0317392074913381</v>
+        <v>1.632741637269253</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.703795318004525</v>
+        <v>3.838557457156239</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.632741637269253</v>
+        <v>3.451580297655015e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.838557457156239</v>
+        <v>244325935.723245</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.451580297655015e-16</v>
+        <v>4.783289930088187e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>244325935.723245</v>
+        <v>20.604264801718</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>4.783289930088187e-07</v>
+        <v>0.0001716360335075741</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>20.604264801718</v>
+        <v>10.5251073186876</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001716360335075741</v>
+        <v>1.164984637691192</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.5251073186876</v>
+        <v>0.01901347662211802</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.164984637691192</v>
+        <v>2.69298558649409</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01901347662211802</v>
+        <v>0.957695450760949</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.69298558649409</v>
+        <v>1.681516298904204</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.957695450760949</v>
+        <v>53</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.681516298904204</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.1943522854301428</v>
       </c>
     </row>
@@ -6852,72 +6684,66 @@
         <v>2.223416735199851e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.2751828785606506</v>
+        <v>7.738722150961781e-08</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.140943245348039</v>
+        <v>1.392712690576343e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>7.738722150961781e-08</v>
+        <v>-0.01192421411723515</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.392712690576343e-06</v>
+        <v>0.1741094441496237</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.01192421411723515</v>
+        <v>0.03044631730354252</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1741094441496237</v>
+        <v>1.781022768670846</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.03044631730354252</v>
+        <v>1.731213728938856</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.725180913008145</v>
+        <v>3.45405482599108</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.731213728938856</v>
+        <v>2.470237016258027e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.45405482599108</v>
+        <v>344697484.1350013</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.470237016258027e-16</v>
+        <v>3.396633330572627e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>344697484.1350013</v>
+        <v>29.3504559663418</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.396633330572627e-07</v>
+        <v>0.0001645598813971185</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>29.3504559663418</v>
+        <v>10.09423293012247</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001645598813971185</v>
+        <v>1.162449658032332</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>10.09423293012247</v>
+        <v>0.01676758860206467</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.162449658032332</v>
+        <v>2.716400549913013</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01676758860206467</v>
+        <v>0.955916523386276</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.716400549913013</v>
+        <v>1.694510742201183</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.955916523386276</v>
+        <v>60</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.694510742201183</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.1936904154242712</v>
       </c>
     </row>
@@ -6932,72 +6758,66 @@
         <v>2.193501321790033e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.3139159922308528</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.159109671514509</v>
+        <v>1.392494235698566e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.00820155416878641</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.392494235698566e-06</v>
+        <v>0.171673058187082</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.00820155416878641</v>
+        <v>0.02953208518692613</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.171673058187082</v>
+        <v>1.820252648529455</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02953208518692613</v>
+        <v>1.778269814153888</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.773284450003883</v>
+        <v>3.293253786310642</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.778269814153888</v>
+        <v>2.333388085237319e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.293253786310642</v>
+        <v>353020662.8398055</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.333388085237319e-16</v>
+        <v>3.355867191446576e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>353020662.8398055</v>
+        <v>29.07951962930759</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.355867191446576e-07</v>
+        <v>0.0001774012144177097</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>29.07951962930759</v>
+        <v>8.982554549808185</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001774012144177097</v>
+        <v>1.429414063347735</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.982554549808185</v>
+        <v>0.01431384516588056</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.429414063347735</v>
+        <v>2.822315544014161</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01431384516588056</v>
+        <v>0.9594651945868435</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.822315544014161</v>
+        <v>1.588955294631047</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9594651945868435</v>
+        <v>62</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.588955294631047</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.1801371414381233</v>
       </c>
     </row>
@@ -7012,72 +6832,66 @@
         <v>2.174877800500488e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.3306227110086035</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.154296908011102</v>
+        <v>1.392335534904268e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.006813798596979539</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.392335534904268e-06</v>
+        <v>0.1714065791270451</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.006813798596979539</v>
+        <v>0.02942115911400566</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1714065791270451</v>
+        <v>1.8292429351737</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.02942115911400566</v>
+        <v>1.846580855117126</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.782138539560469</v>
+        <v>3.473677111022767</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.846580855117126</v>
+        <v>1.976594601675152e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.473677111022767</v>
+        <v>422328197.0333419</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.976594601675152e-16</v>
+        <v>2.808953554020743e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>422328197.0333419</v>
+        <v>35.25475992870553</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.808953554020743e-07</v>
+        <v>0.0001801711907695828</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>35.25475992870553</v>
+        <v>9.460663185284583</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001801711907695828</v>
+        <v>1.36615740295448</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.460663185284583</v>
+        <v>0.0161260689069326</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.36615740295448</v>
+        <v>2.823878866833694</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.0161260689069326</v>
+        <v>0.9592704604225651</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.823878866833694</v>
+        <v>1.596270904695609</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9592704604225651</v>
+        <v>62</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.596270904695609</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.1970434463844495</v>
       </c>
     </row>
@@ -7092,72 +6906,66 @@
         <v>2.160305145066222e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.3366366519241411</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.140605710714474</v>
+        <v>1.392186409826725e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.007112762039680093</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.392186409826725e-06</v>
+        <v>0.1728544570461733</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.007112762039680093</v>
+        <v>0.02992363885714837</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1728544570461733</v>
+        <v>1.833192009643176</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.02992363885714837</v>
+        <v>1.808815029562487</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.78579339263528</v>
+        <v>3.867848908672769</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.808815029562487</v>
+        <v>1.594253934359375e-16</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.867848908672769</v>
+        <v>515191262.6331576</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.594253934359375e-16</v>
+        <v>2.304594533226403e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>515191262.6331576</v>
+        <v>42.31501269020676</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.304594533226403e-07</v>
+        <v>0.0001657215670956624</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>42.31501269020676</v>
+        <v>10.76476439982898</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001657215670956624</v>
+        <v>1.205660986892754</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.76476439982898</v>
+        <v>0.01920384048147602</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.205660986892754</v>
+        <v>2.774223014242557</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01920384048147602</v>
+        <v>0.9570408901787227</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.774223014242557</v>
+        <v>1.623999812268085</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9570408901787227</v>
+        <v>62</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.623999812268085</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2348168447986285</v>
       </c>
     </row>
@@ -7172,72 +6980,66 @@
         <v>2.147892914530746e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.3341560478981068</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.122824061301509</v>
+        <v>1.392027661388092e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.007700594531112241</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.392027661388092e-06</v>
+        <v>0.1744804139002401</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.007700594531112241</v>
+        <v>0.03049726732292003</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1744804139002401</v>
+        <v>1.836657370427646</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.03049726732292003</v>
+        <v>2.018423271106073</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.795025552801795</v>
+        <v>4.160153934648078</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.018423271106073</v>
+        <v>1.378090368277977e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.160153934648078</v>
+        <v>568008470.3622378</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.378090368277977e-16</v>
+        <v>2.077538644427944e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>568008470.3622378</v>
+        <v>44.46182875165514</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.077538644427944e-07</v>
+        <v>0.0001447651050708931</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>44.46182875165514</v>
+        <v>9.820629104757799</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001447651050708931</v>
+        <v>1.23520299936335</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.820629104757799</v>
+        <v>0.01396183523778986</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.23520299936335</v>
+        <v>2.894589568940462</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01396183523778986</v>
+        <v>0.9580402616108944</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.894589568940462</v>
+        <v>1.608536004039815</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9580402616108944</v>
+        <v>83</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.608536004039815</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>83</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2468697505722383</v>
       </c>
     </row>
@@ -7252,72 +7054,66 @@
         <v>2.137801777699407e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.323614274627923</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.105605755268815</v>
+        <v>1.391856547921872e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.008301062074939324</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.391856547921872e-06</v>
+        <v>0.1759115062921273</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.008301062074939324</v>
+        <v>0.03100928764132499</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1759115062921273</v>
+        <v>1.839123322297471</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.03100928764132499</v>
+        <v>1.883163890096227</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.80283634274326</v>
+        <v>4.114332318003756</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.883163890096227</v>
+        <v>1.408957083099765e-16</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.114332318003756</v>
+        <v>551469754.1258172</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.408957083099765e-16</v>
+        <v>2.138220591801572e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>551469754.1258172</v>
+        <v>42.84904637692157</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>2.138220591801572e-07</v>
+        <v>0.0001313363621704277</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>42.84904637692157</v>
+        <v>7.938668316141698</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001313363621704277</v>
+        <v>1.319862037325861</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.938668316141698</v>
+        <v>0.008277139926642554</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.319862037325861</v>
+        <v>3.087013822934122</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.008277139926642554</v>
+        <v>0.9587599897780429</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.087013822934122</v>
+        <v>1.603470306210468</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9587599897780429</v>
+        <v>80</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.603470306210468</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2443378324857812</v>
       </c>
     </row>
@@ -7332,72 +7128,66 @@
         <v>2.13025634140286e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.3062458400997297</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.092965686596667</v>
+        <v>1.391674104480687e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.008711802950284333</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.391674104480687e-06</v>
+        <v>0.176902849939588</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.008711802950284333</v>
+        <v>0.03136657084693017</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.176902849939588</v>
+        <v>1.836164315100664</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.03136657084693017</v>
+        <v>1.791439454410069</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.798889678791141</v>
+        <v>4.123231228428923</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.791439454410069</v>
+        <v>1.402881919231385e-16</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.123231228428923</v>
+        <v>549381593.2549566</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.402881919231385e-16</v>
+        <v>2.147146943134177e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>549381593.2549566</v>
+        <v>42.34180102617933</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.147146943134177e-07</v>
+        <v>0.000129356714717027</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>42.34180102617933</v>
+        <v>7.495836507470552</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.000129356714717027</v>
+        <v>1.363281788737501</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>7.495836507470552</v>
+        <v>0.007268238809458363</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.363281788737501</v>
+        <v>3.113500581325626</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.007268238809458363</v>
+        <v>0.9601610361699755</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.113500581325626</v>
+        <v>1.581683461656376</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9601610361699755</v>
+        <v>80</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.581683461656376</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2550780080320508</v>
       </c>
     </row>
@@ -7412,72 +7202,66 @@
         <v>2.125820332619189e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.2846444881896611</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.088249522382538</v>
+        <v>1.391492976976607e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.008149060665083183</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.391492976976607e-06</v>
+        <v>0.1766592271693066</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.008149060665083183</v>
+        <v>0.03126886692651838</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1766592271693066</v>
+        <v>1.829358831174179</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.03126886692651838</v>
+        <v>1.781147575873216</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.790722764206061</v>
+        <v>4.153987403603595</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.781147575873216</v>
+        <v>1.253284761714078e-16</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.153987403603595</v>
+        <v>613391654.9530693</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.253284761714078e-16</v>
+        <v>1.923774761370697e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>613391654.9530693</v>
+        <v>47.15475423266374</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.923774761370697e-07</v>
+        <v>0.0001395365800353277</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>47.15475423266374</v>
+        <v>9.045663008396943</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001395365800353277</v>
+        <v>1.337289322252007</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>9.045663008396943</v>
+        <v>0.01141744381249182</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.337289322252007</v>
+        <v>2.959966722958388</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01141744381249182</v>
+        <v>0.9610513057076669</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.959966722958388</v>
+        <v>1.588888085084199</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9610513057076669</v>
+        <v>93</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.588888085084199</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.29224119322447</v>
       </c>
     </row>
@@ -7492,72 +7276,66 @@
         <v>2.125170245394349e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.2634383339253833</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.094034914380691</v>
+        <v>1.391338050780408e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.006247624374658606</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.391338050780408e-06</v>
+        <v>0.17404470072179</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.006247624374658606</v>
+        <v>0.03032201343583281</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.17404470072179</v>
+        <v>1.83854877635456</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.03032201343583281</v>
+        <v>1.804090460192072</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.799176349767351</v>
+        <v>4.311994869814241</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.804090460192072</v>
+        <v>1.163117630566842e-16</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.311994869814241</v>
+        <v>672638081.3002459</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.163117630566842e-16</v>
+        <v>1.758261725982728e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>672638081.3002459</v>
+        <v>52.62432535345267</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.758261725982728e-07</v>
+        <v>0.0001648059127178122</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>52.62432535345267</v>
+        <v>10.93929109483082</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001648059127178122</v>
+        <v>1.266156862393867</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.93929109483082</v>
+        <v>0.01972200873919219</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.266156862393867</v>
+        <v>2.720425189579082</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01972200873919219</v>
+        <v>0.9619152841572535</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.720425189579082</v>
+        <v>1.585436955897669</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9619152841572535</v>
+        <v>93</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.585436955897669</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.3398102416355596</v>
       </c>
     </row>
@@ -7572,72 +7350,66 @@
         <v>2.127695470513059e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.2419317167783914</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.10993723831754</v>
+        <v>1.391185542022846e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.008806747672860844</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.391185542022846e-06</v>
+        <v>0.1752926882426107</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.008806747672860844</v>
+        <v>0.03080227914054915</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1752926882426107</v>
+        <v>1.852176111558622</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.03080227914054915</v>
+        <v>1.97948598466094</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.819530353225869</v>
+        <v>4.250288492555791</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.97948598466094</v>
+        <v>1.071238647191796e-16</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.250288492555791</v>
+        <v>754088295.075693</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.071238647191796e-16</v>
+        <v>1.568650967204768e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>754088295.075693</v>
+        <v>60.91589534252275</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.568650967204768e-07</v>
+        <v>0.0001500469216845129</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>60.91589534252275</v>
+        <v>10.00366938083761</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001500469216845129</v>
+        <v>1.305333736564907</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>10.00366938083761</v>
+        <v>0.01501570577471986</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.305333736564907</v>
+        <v>3.024566822000577</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01501570577471986</v>
+        <v>0.9620508041774527</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.024566822000577</v>
+        <v>1.593339535446414</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9620508041774527</v>
+        <v>111</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.593339535446414</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.3754974760963246</v>
       </c>
     </row>
@@ -7652,72 +7424,66 @@
         <v>2.133496097479325e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.2113219769821656</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.138142786416137</v>
+        <v>1.390958616646804e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.0125834581131776</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>1.390958616646804e-06</v>
+        <v>0.1764565177400186</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.0125834581131776</v>
+        <v>0.0312926849344369</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1764565177400186</v>
+        <v>1.872852132853205</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.0312926849344369</v>
+        <v>1.85447944349016</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.854219891852502</v>
+        <v>4.487774806068058</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.85447944349016</v>
+        <v>9.608618234316567e-17</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.487774806068058</v>
+        <v>841012170.1071604</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>9.608618234316567e-17</v>
+        <v>1.417282516191898e-07</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>841012170.1071604</v>
+        <v>67.96189804379436</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.417282516191898e-07</v>
+        <v>0.0001090290856240445</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>67.96189804379436</v>
+        <v>7.409992710611241</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001090290856240445</v>
+        <v>1.585001502398599</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>7.409992710611241</v>
+        <v>0.005986568158084496</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.585001502398599</v>
+        <v>3.448040558159241</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.005986568158084496</v>
+        <v>0.9616867600547959</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.448040558159241</v>
+        <v>1.492294166730688</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9616867600547959</v>
+        <v>113</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.492294166730688</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.4591776010371524</v>
       </c>
     </row>
@@ -7732,72 +7498,66 @@
         <v>2.143294908716354e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.1722217514718831</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.177654978459928</v>
+        <v>1.39064784060585e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.01644201371080779</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1.39064784060585e-06</v>
+        <v>0.1767566673453984</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.01644201371080779</v>
+        <v>0.03151123554407822</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1767566673453984</v>
+        <v>1.882934679179855</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.03151123554407822</v>
+        <v>1.959350737255677</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.867531638298444</v>
+        <v>5.285979553069923</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.959350737255677</v>
+        <v>4.952496152338085e-17</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>5.285979553069923</v>
+        <v>1617694460.661078</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>4.952496152338085e-17</v>
+        <v>7.354523382416561e-08</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1617694460.661078</v>
+        <v>129.6036234120259</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>7.354523382416561e-08</v>
+        <v>0.0001094839618868006</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>129.6036234120259</v>
+        <v>7.483617015065525</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001094839618868006</v>
+        <v>1.64147272690156</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>7.483617015065525</v>
+        <v>0.006131597130395892</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.64147272690156</v>
+        <v>3.351248776501593</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.006131597130395892</v>
+        <v>0.9612872833359597</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.351248776501593</v>
+        <v>1.465272103847317</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9612872833359597</v>
+        <v>113</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.465272103847317</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.4933614303974753</v>
       </c>
     </row>
@@ -7812,72 +7572,66 @@
         <v>2.157148126077036e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.1271950895730754</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.223893725757555</v>
+        <v>1.390257885823673e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.01976303916049358</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1.390257885823673e-06</v>
+        <v>0.1763218688121008</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.01976303916049358</v>
+        <v>0.031478444214256</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1763218688121008</v>
+        <v>1.891475949360538</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.031478444214256</v>
+        <v>2.235356230400124</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.88257910764301</v>
+        <v>4.548476043073377</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.235356230400124</v>
+        <v>3.614952612756917e-17</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>4.548476043073377</v>
+        <v>2204971319.012755</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>3.614952612756917e-17</v>
+        <v>5.41666611893281e-08</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>2204971319.012755</v>
+        <v>175.7553274940599</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>5.41666611893281e-08</v>
+        <v>0.0001127251688280513</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>175.7553274940599</v>
+        <v>7.639282064611565</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001127251688280513</v>
+        <v>1.467269165981182</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>7.639282064611565</v>
+        <v>0.006578486471481257</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.467269165981182</v>
+        <v>3.302511014950081</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.006578486471481257</v>
+        <v>0.9603197500516402</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.302511014950081</v>
+        <v>1.440052124747895</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9603197500516402</v>
+        <v>113</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.440052124747895</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.4758730494057944</v>
       </c>
     </row>
@@ -7892,72 +7646,66 @@
         <v>2.174653403907623e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.07868512482910693</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.271337221298636</v>
+        <v>1.389796008470513e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.0228692850318883</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1.389796008470513e-06</v>
+        <v>0.1752001875468365</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.0228692850318883</v>
+        <v>0.03121683549087441</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1752001875468365</v>
+        <v>1.900951505389258</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.03121683549087441</v>
+        <v>2.340885164332093</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.893846606347295</v>
+        <v>4.531636270987004</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>2.340885164332093</v>
+        <v>3.641869197224907e-17</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4.531636270987004</v>
+        <v>2147100010.695039</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>3.641869197224907e-17</v>
+        <v>5.585326201882444e-08</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>2147100010.695039</v>
+        <v>167.8915705066148</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>5.585326201882444e-08</v>
+        <v>0.0001332239449602512</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>167.8915705066148</v>
+        <v>9.328559198669742</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001332239449602512</v>
+        <v>1.352476319500249</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>9.328559198669742</v>
+        <v>0.01159341636624645</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.352476319500249</v>
+        <v>3.122518586307025</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01159341636624645</v>
+        <v>0.9604896762527355</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.122518586307025</v>
+        <v>1.420264678003861</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9604896762527355</v>
+        <v>109</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.420264678003861</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.5324468017196058</v>
       </c>
     </row>
@@ -7972,72 +7720,66 @@
         <v>2.194830494672843e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.02760995226016987</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.314386962512497</v>
+        <v>1.389262727736497e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.02596597607044644</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>1.389262727736497e-06</v>
+        <v>0.1733649996152671</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.02596597607044644</v>
+        <v>0.03072835830433701</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1733649996152671</v>
+        <v>1.900283073551207</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.03072835830433701</v>
+        <v>2.292072061286549</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.895218857807808</v>
+        <v>4.467459315600587</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>2.292072061286549</v>
+        <v>3.845120551962132e-17</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.467459315600587</v>
+        <v>1982282367.665897</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>3.845120551962132e-17</v>
+        <v>6.000083356894322e-08</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>1982282367.665897</v>
+        <v>151.0918351804697</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>6.000083356894322e-08</v>
+        <v>0.0001583031473565802</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>151.0918351804697</v>
+        <v>10.46398835461079</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001583031473565802</v>
+        <v>1.257679555079692</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>10.46398835461079</v>
+        <v>0.01733341139675692</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.257679555079692</v>
+        <v>2.983313938015853</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01733341139675692</v>
+        <v>0.9586714678537013</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>2.983313938015853</v>
+        <v>1.422449012289916</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9586714678537013</v>
+        <v>67</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.422449012289916</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.6221321000382288</v>
       </c>
     </row>
@@ -8052,72 +7794,66 @@
         <v>2.215629858948212e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.02656798302706145</v>
+        <v>7.05494160542909e-08</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.34703300332565</v>
+        <v>1.388653360758811e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>7.05494160542909e-08</v>
+        <v>-0.0293326774003604</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1.388653360758811e-06</v>
+        <v>0.1705079048217024</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.0293326774003604</v>
+        <v>0.02993139615039419</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1705079048217024</v>
+        <v>1.894833952522238</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.02993139615039419</v>
+        <v>2.112602989379041</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.896831838346139</v>
+        <v>4.535921691613673</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2.112602989379041</v>
+        <v>4.277896575416262e-17</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.535921691613673</v>
+        <v>1784560791.999496</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>4.277896575416262e-17</v>
+        <v>6.670836454263408e-08</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>1784560791.999496</v>
+        <v>136.2363421677515</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>6.670836454263408e-08</v>
+        <v>0.0001455836710991567</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>136.2363421677515</v>
+        <v>9.503858904004153</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001455836710991567</v>
+        <v>1.258344699773753</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>9.503858904004153</v>
+        <v>0.01314960255942126</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.258344699773753</v>
+        <v>3.222969569147984</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01314960255942126</v>
+        <v>0.9600383845992969</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.222969569147984</v>
+        <v>1.459842014399694</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9600383845992969</v>
+        <v>60</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.459842014399694</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.7097516752886019</v>
       </c>
     </row>
@@ -8494,7 +8230,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.60092802810334</v>
+        <v>1.626930936461814</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.894125743581918</v>
@@ -8583,7 +8319,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.610679127216871</v>
+        <v>1.640284287469014</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.696361359163453</v>
@@ -8672,7 +8408,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.641307260877725</v>
+        <v>1.678137026170442</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.802802885972289</v>
@@ -8761,7 +8497,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.674804060854743</v>
+        <v>1.710078016250133</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.348482222532934</v>
@@ -8850,7 +8586,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.666242986684731</v>
+        <v>1.701848219643872</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.98777424725044</v>
@@ -8939,7 +8675,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.645835465464463</v>
+        <v>1.678641320255635</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.71851747026911</v>
@@ -9028,7 +8764,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.6439703787515</v>
+        <v>1.674530609611099</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.714066508073482</v>
@@ -9117,7 +8853,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.618506057810151</v>
+        <v>1.646919397592205</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.779950959698886</v>
@@ -9206,7 +8942,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.628012073193717</v>
+        <v>1.660960141909287</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.798993387782724</v>
@@ -9295,7 +9031,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.627327913518413</v>
+        <v>1.661254812151513</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.806361688157943</v>
@@ -9384,7 +9120,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.636619184653082</v>
+        <v>1.66884916058165</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.887410153017981</v>
@@ -9473,7 +9209,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.649544223693027</v>
+        <v>1.678526599169204</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.650857995386182</v>
@@ -9562,7 +9298,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.636816599340451</v>
+        <v>1.667599072815184</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.790680148560715</v>
@@ -9651,7 +9387,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.611505174651207</v>
+        <v>1.641222481135885</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.767600946977303</v>
@@ -9740,7 +9476,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.60912876848265</v>
+        <v>1.637535462214081</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.011407613436292</v>
@@ -9829,7 +9565,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.589452627903397</v>
+        <v>1.61754841234566</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.77054472922749</v>
@@ -9918,7 +9654,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.57902850342798</v>
+        <v>1.605887229753852</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.691497318510495</v>
@@ -10007,7 +9743,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.561060657723507</v>
+        <v>1.587142305810196</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.596199382473594</v>
@@ -10096,7 +9832,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.556533485746945</v>
+        <v>1.5835805040516</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.720346809135575</v>
@@ -10185,7 +9921,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.569457283743067</v>
+        <v>1.598281565854756</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.499195936976167</v>
@@ -10274,7 +10010,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.573204433939196</v>
+        <v>1.604151227504299</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.515597193329419</v>
@@ -10363,7 +10099,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575933711512169</v>
+        <v>1.60814117855935</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.43607980865692</v>
@@ -10452,7 +10188,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.571152099695442</v>
+        <v>1.60222352245345</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.198753810211302</v>
@@ -10541,7 +10277,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.56807188655114</v>
+        <v>1.60003374296884</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.288884389901204</v>
@@ -10630,7 +10366,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.559299502743643</v>
+        <v>1.589003104007642</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.330545204082652</v>
@@ -10719,7 +10455,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.555987028075081</v>
+        <v>1.587216150834695</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.324415717100822</v>
@@ -10808,7 +10544,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.561008803322186</v>
+        <v>1.59230418731695</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.338223918252142</v>
@@ -10897,7 +10633,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.579772271797008</v>
+        <v>1.610119114934256</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.306492221272852</v>
@@ -10986,7 +10722,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.597568299187113</v>
+        <v>1.626567491170488</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.18475895189262</v>
@@ -11075,7 +10811,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.596147270825996</v>
+        <v>1.62877577425741</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.163257237693553</v>
@@ -11164,7 +10900,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.630907344467762</v>
+        <v>1.657973115327076</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.516661104300584</v>
@@ -11253,7 +10989,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.624550737559369</v>
+        <v>1.658599831131853</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.302023420701289</v>
@@ -11342,7 +11078,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.615440031537742</v>
+        <v>1.649939840540475</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.300169967373175</v>
@@ -11431,7 +11167,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.617948723139742</v>
+        <v>1.651136494387137</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.288336410486497</v>
@@ -11520,7 +11256,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.605899308215788</v>
+        <v>1.638289825237214</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.335595216609924</v>
@@ -11609,7 +11345,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.617979499052429</v>
+        <v>1.648945871610004</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.307010964638412</v>
@@ -11698,7 +11434,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.633244906680251</v>
+        <v>1.66662936226031</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.313646783229115</v>
@@ -11787,7 +11523,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.69288160688891</v>
+        <v>1.725587578920339</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.420289648802584</v>
@@ -11876,7 +11612,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.677926817075519</v>
+        <v>1.708770581415706</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.452134752607304</v>
@@ -11965,7 +11701,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.691378273342558</v>
+        <v>1.724472027139543</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.447406312447077</v>
@@ -12054,7 +11790,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.702471111784161</v>
+        <v>1.73486821656678</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.412096559488255</v>
@@ -12143,7 +11879,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.698954822495162</v>
+        <v>1.731393977919471</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.451373713003293</v>
@@ -12232,7 +11968,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.701750656018153</v>
+        <v>1.737612594980061</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.427597224015164</v>
@@ -12321,7 +12057,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.689447239386328</v>
+        <v>1.727707697219935</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.528120114277577</v>
@@ -12410,7 +12146,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.71631439408091</v>
+        <v>1.752834312190646</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.525699367455616</v>
@@ -12499,7 +12235,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.731564387932465</v>
+        <v>1.768284649630266</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.530446314269639</v>
@@ -12588,7 +12324,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.724341749095508</v>
+        <v>1.763227464889697</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.481144444277471</v>
@@ -12677,7 +12413,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.767883314397382</v>
+        <v>1.804980060709654</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.754202036103677</v>
@@ -12766,7 +12502,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.805540329430618</v>
+        <v>1.840274421406611</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.676845809186617</v>
@@ -12855,7 +12591,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.845046473813486</v>
+        <v>1.877291728523225</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.872819842057639</v>
@@ -12944,7 +12680,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.856061351933082</v>
+        <v>1.888489120902418</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.101666859619381</v>
@@ -13033,7 +12769,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.822611496159261</v>
+        <v>1.856769542964839</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.819542432928429</v>
@@ -13122,7 +12858,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.824651915440265</v>
+        <v>1.858109638335515</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.902049725149245</v>
@@ -13211,7 +12947,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.854399034091089</v>
+        <v>1.886911497156516</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.907836153718544</v>
@@ -13300,7 +13036,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.80288186232145</v>
+        <v>1.838919309156502</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.870623741588109</v>
@@ -13389,7 +13125,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.779924719068946</v>
+        <v>1.817731691059919</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.708303127440025</v>
@@ -13478,7 +13214,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.767826219440161</v>
+        <v>1.812348695907781</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.673448785115264</v>
@@ -13567,7 +13303,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.731295710658481</v>
+        <v>1.769391265646223</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.84076282429855</v>
@@ -13656,7 +13392,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.69311189290341</v>
+        <v>1.737914595771584</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.709459288949769</v>
@@ -13745,7 +13481,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.686222172078246</v>
+        <v>1.731126373803273</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.787549939919208</v>
@@ -13834,7 +13570,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.688952298136607</v>
+        <v>1.73299635427451</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.738566202982279</v>
@@ -13923,7 +13659,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.678288396882049</v>
+        <v>1.721466463920513</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.723508541175593</v>
@@ -14012,7 +13748,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.655507396130849</v>
+        <v>1.700952306723754</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.701760690996803</v>
@@ -14101,7 +13837,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.648277706669264</v>
+        <v>1.694381291845063</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.695914075598682</v>
@@ -14190,7 +13926,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.647059120399161</v>
+        <v>1.69347495871127</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.721180602635566</v>
@@ -14279,7 +14015,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.64017308247729</v>
+        <v>1.686614200599933</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.713054215495781</v>
@@ -14368,7 +14104,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.656052677825939</v>
+        <v>1.703788856542291</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.608943751847444</v>
@@ -14457,7 +14193,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.659580159215037</v>
+        <v>1.707436268395713</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.769528367762907</v>
@@ -14546,7 +14282,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.666677610480675</v>
+        <v>1.708616063248704</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.278479176045177</v>
@@ -14635,7 +14371,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.658408589835673</v>
+        <v>1.702003029900859</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.536400652039129</v>
@@ -14724,7 +14460,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.638017953246926</v>
+        <v>1.685226623496383</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.484579843579868</v>
@@ -14813,7 +14549,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.557995292824578</v>
+        <v>1.608495131449959</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.19166303513152</v>
@@ -14902,7 +14638,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.584211121505344</v>
+        <v>1.637460099857331</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.144281126019123</v>
@@ -14991,7 +14727,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.614441553333115</v>
+        <v>1.668969441755193</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.103068240156312</v>
@@ -15080,7 +14816,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.608175237337718</v>
+        <v>1.656630839378712</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.140655175616728</v>
@@ -15169,7 +14905,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.604278466192587</v>
+        <v>1.657165750568327</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.139502567832847</v>
@@ -15258,7 +14994,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.612370672866168</v>
+        <v>1.665855685008187</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.1468454057124</v>
@@ -15347,7 +15083,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.635475279028255</v>
+        <v>1.689519056651983</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.111840204845158</v>
@@ -15436,7 +15172,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.636065440042059</v>
+        <v>1.688947186446657</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.1339478581488</v>
@@ -15525,7 +15261,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.619430668879754</v>
+        <v>1.670516014302717</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.177474361283383</v>
@@ -15614,7 +15350,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.627461983519754</v>
+        <v>1.680549790750989</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.166328132563778</v>
@@ -15703,7 +15439,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.629922576026364</v>
+        <v>1.682686646039516</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.145822255983423</v>
@@ -15792,7 +15528,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.622395178433614</v>
+        <v>1.673356066658102</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.106041878771765</v>
@@ -15881,7 +15617,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.597223341205804</v>
+        <v>1.647476103451445</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.15161969806163</v>
@@ -15970,7 +15706,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.592960344655387</v>
+        <v>1.643855584496146</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.180387331862008</v>
@@ -16059,7 +15795,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.62090763318919</v>
+        <v>1.669877956574296</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.023675608369242</v>
@@ -16148,7 +15884,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.661575351305399</v>
+        <v>1.703888758719521</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.386264948820109</v>
@@ -16434,7 +16170,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.79050565437943</v>
+        <v>1.772770475058451</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.154426005917905</v>
@@ -16523,7 +16259,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.788596071435494</v>
+        <v>1.767635878245628</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.730826295960061</v>
@@ -16612,7 +16348,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.806547396247063</v>
+        <v>1.781027687969695</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.400261849959413</v>
@@ -16701,7 +16437,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.806524962079776</v>
+        <v>1.779481364237028</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.764437081059176</v>
@@ -16790,7 +16526,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.79822156241252</v>
+        <v>1.768109027363937</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.682360063699101</v>
@@ -16879,7 +16615,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.772783336624238</v>
+        <v>1.734841893448571</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.38123887203644</v>
@@ -16968,7 +16704,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.755608831566706</v>
+        <v>1.723214481467207</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.285687493089088</v>
@@ -17057,7 +16793,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.743130908132174</v>
+        <v>1.715999595220725</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.875799450144475</v>
@@ -17146,7 +16882,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.737519339969878</v>
+        <v>1.706955068472431</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.99393463225082</v>
@@ -17235,7 +16971,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.730833016018207</v>
+        <v>1.699350773434336</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.869681876625238</v>
@@ -17324,7 +17060,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.727752547920794</v>
+        <v>1.699038949529181</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.009172286560529</v>
@@ -17413,7 +17149,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.720093113080107</v>
+        <v>1.684909184986833</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.978637227242863</v>
@@ -17502,7 +17238,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.742932681806684</v>
+        <v>1.703009188848009</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.945488722921179</v>
@@ -17591,7 +17327,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.731719722023362</v>
+        <v>1.694437234495281</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.037935988371239</v>
@@ -17680,7 +17416,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.725358297656534</v>
+        <v>1.694984968762043</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.851640799608127</v>
@@ -17769,7 +17505,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.721035383625686</v>
+        <v>1.689213544128603</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.823923383060539</v>
@@ -17858,7 +17594,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.710788929053435</v>
+        <v>1.679370603708333</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.016949815647637</v>
@@ -17947,7 +17683,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.707068647719847</v>
+        <v>1.670981644093992</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.901035344828593</v>
@@ -18036,7 +17772,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.716060666073044</v>
+        <v>1.681324830255108</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.719739248857752</v>
@@ -18125,7 +17861,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.715035944428634</v>
+        <v>1.683807246460052</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.893592098729772</v>
@@ -18214,7 +17950,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.711585048008667</v>
+        <v>1.682281671920646</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.514793225867316</v>
@@ -18303,7 +18039,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.714205445823197</v>
+        <v>1.68592666011813</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.867445303052824</v>
@@ -18392,7 +18128,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.716637898311109</v>
+        <v>1.690588787695643</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.885546563660589</v>
@@ -18481,7 +18217,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.717973094469424</v>
+        <v>1.693225326129809</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.720890565954058</v>
@@ -18570,7 +18306,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.721656819106874</v>
+        <v>1.696653741856313</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.805639394659395</v>
@@ -18659,7 +18395,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.728037940311239</v>
+        <v>1.706593825785969</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.068996143614385</v>
@@ -18748,7 +18484,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.737919610437041</v>
+        <v>1.719436849764411</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.792686436220324</v>
@@ -18837,7 +18573,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.724630274582239</v>
+        <v>1.71283631325975</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.910046222557755</v>
@@ -18926,7 +18662,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.725109128554113</v>
+        <v>1.714995987450397</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.022626011767503</v>
@@ -19015,7 +18751,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.740947960579723</v>
+        <v>1.732947083927157</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.22864640507987</v>
@@ -19104,7 +18840,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.746129892754518</v>
+        <v>1.739076420057365</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.108794994627713</v>
@@ -19193,7 +18929,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.752726566143336</v>
+        <v>1.751817745622333</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.540841040102809</v>
@@ -19282,7 +19018,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.757547540748948</v>
+        <v>1.762315132576398</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.496103201759698</v>
@@ -19371,7 +19107,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.749092339766924</v>
+        <v>1.746648828637909</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.264181884268813</v>
@@ -19460,7 +19196,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.747156565836806</v>
+        <v>1.744370263160541</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.478421690171087</v>
@@ -19549,7 +19285,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.753879998877303</v>
+        <v>1.751838438614247</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.18774915867007</v>
@@ -19638,7 +19374,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.758588263867109</v>
+        <v>1.753878890096893</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.157728205535481</v>
@@ -19727,7 +19463,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.769183119632168</v>
+        <v>1.761658847164363</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.426659903446527</v>
@@ -19816,7 +19552,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.774507629074487</v>
+        <v>1.770715715813718</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.39162743666515</v>
@@ -19905,7 +19641,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.777895442823479</v>
+        <v>1.776079860515307</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.569084772287962</v>
@@ -19994,7 +19730,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.784267039444255</v>
+        <v>1.783599791288059</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.106778064264677</v>
@@ -20083,7 +19819,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.782172303968022</v>
+        <v>1.780978324185565</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.554613370872596</v>
@@ -20172,7 +19908,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.788436696914321</v>
+        <v>1.785271399051092</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.687628198562122</v>
@@ -20261,7 +19997,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.791666403568828</v>
+        <v>1.790361643078485</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.520963389688181</v>
@@ -20350,7 +20086,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.789131490717041</v>
+        <v>1.785248568854571</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.660244252787501</v>
@@ -20439,7 +20175,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.801312172266927</v>
+        <v>1.801398243630733</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.330929033224937</v>
@@ -20528,7 +20264,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.798779723788739</v>
+        <v>1.798402296872062</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.244451768055186</v>
@@ -20617,7 +20353,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.813990501797947</v>
+        <v>1.813369005947066</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.274513465226813</v>
@@ -20706,7 +20442,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.831734248528864</v>
+        <v>1.835766748697125</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.917095933653801</v>
@@ -20795,7 +20531,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.847260053989059</v>
+        <v>1.848882311851454</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.549204923057143</v>
@@ -20884,7 +20620,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.869984111080707</v>
+        <v>1.86916699779981</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.505010937329688</v>
@@ -20973,7 +20709,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.865693642029514</v>
+        <v>1.865260509697378</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.29271728755085</v>
@@ -21062,7 +20798,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.867608647701605</v>
+        <v>1.86926748219665</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.849665997288608</v>
@@ -21151,7 +20887,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.875083348609351</v>
+        <v>1.876137140955132</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.306940629951882</v>
@@ -21240,7 +20976,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.851111904553058</v>
+        <v>1.859490215620628</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.561022866746112</v>
@@ -21329,7 +21065,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.852470036579601</v>
+        <v>1.860863816285369</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.546359323718892</v>
@@ -21418,7 +21154,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.852287826792922</v>
+        <v>1.863636614962453</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.60234269815791</v>
@@ -21507,7 +21243,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.842537953762339</v>
+        <v>1.850920357733138</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.666441423421751</v>
@@ -21596,7 +21332,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.822742271123614</v>
+        <v>1.83847700088649</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.701897587949758</v>
@@ -21685,7 +21421,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.824294178890727</v>
+        <v>1.842356040188232</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.627801498018202</v>
@@ -21774,7 +21510,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.820334809624986</v>
+        <v>1.838000988918912</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.618196897891559</v>
@@ -21863,7 +21599,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.814171515306388</v>
+        <v>1.831604208142263</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.681671795984649</v>
@@ -21952,7 +21688,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.801563608059962</v>
+        <v>1.820243232962677</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.626483192522304</v>
@@ -22041,7 +21777,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.790263707894169</v>
+        <v>1.80832747370574</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.654246090312052</v>
@@ -22130,7 +21866,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.786422207601084</v>
+        <v>1.806293271265805</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.568967037567331</v>
@@ -22219,7 +21955,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.787895855300563</v>
+        <v>1.804604164039488</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.676455341804595</v>
@@ -22308,7 +22044,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.789703270344694</v>
+        <v>1.808913649472968</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.657422615130448</v>
@@ -22397,7 +22133,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.791533379443434</v>
+        <v>1.809954638829948</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.68283404567185</v>
@@ -22486,7 +22222,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.791148446556552</v>
+        <v>1.805248789837657</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.647079433712055</v>
@@ -22575,7 +22311,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.786842614212282</v>
+        <v>1.804339168026144</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.548613626774615</v>
@@ -22664,7 +22400,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.781784340785472</v>
+        <v>1.798986272176102</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.582125264936133</v>
@@ -22753,7 +22489,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.782905287480624</v>
+        <v>1.793573814647913</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.351372750890157</v>
@@ -22842,7 +22578,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.763991847900154</v>
+        <v>1.779051190192767</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.960853429220504</v>
@@ -22931,7 +22667,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.774145764844642</v>
+        <v>1.786367255376063</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.166869405220286</v>
@@ -23020,7 +22756,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.753368634916036</v>
+        <v>1.767458113809564</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.447505843768798</v>
@@ -23109,7 +22845,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.753075706388317</v>
+        <v>1.770773731583106</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.525253766558492</v>
@@ -23198,7 +22934,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.747514432203718</v>
+        <v>1.765089944041267</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.689178400444458</v>
@@ -23287,7 +23023,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.75102878288022</v>
+        <v>1.766706094600635</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.6801430488069</v>
@@ -23376,7 +23112,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.75529702431638</v>
+        <v>1.771539121061798</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.625620722501535</v>
@@ -23465,7 +23201,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.747929346028074</v>
+        <v>1.76839076623382</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.364242860416726</v>
@@ -23554,7 +23290,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.739345219175301</v>
+        <v>1.761670872043142</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.383816206520475</v>
@@ -23643,7 +23379,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.74270966582827</v>
+        <v>1.758880559002594</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.464690516558368</v>
@@ -23732,7 +23468,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.740420882267135</v>
+        <v>1.757528808177597</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.321312991470648</v>
@@ -23821,7 +23557,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.735988214575332</v>
+        <v>1.751150224003154</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.124361521905823</v>
@@ -23910,7 +23646,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.746721099383975</v>
+        <v>1.758399855554997</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.213378625358799</v>
@@ -23999,7 +23735,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.746798054949388</v>
+        <v>1.759863035905145</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.371179578550349</v>
@@ -24088,7 +23824,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.730377404227992</v>
+        <v>1.734334104579266</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.270010564420741</v>
@@ -24374,7 +24110,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.778574076759368</v>
+        <v>1.766391527540425</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.641491679250326</v>
@@ -24463,7 +24199,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.776781010468103</v>
+        <v>1.763655273967057</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.799910575855088</v>
@@ -24552,7 +24288,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.794140336581117</v>
+        <v>1.782347175355817</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.553000220344235</v>
@@ -24641,7 +24377,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.772445963087149</v>
+        <v>1.759929437364639</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.405543917171562</v>
@@ -24730,7 +24466,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.761404170552659</v>
+        <v>1.751472217549038</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.482021371499095</v>
@@ -24819,7 +24555,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.743424593172487</v>
+        <v>1.732931508747757</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.373015843502385</v>
@@ -24908,7 +24644,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.739974022725881</v>
+        <v>1.728454106508442</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.868217874084594</v>
@@ -24997,7 +24733,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.731574611783609</v>
+        <v>1.723687463150192</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.683009417158336</v>
@@ -25086,7 +24822,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.735388636335707</v>
+        <v>1.720075770398448</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.430478889926684</v>
@@ -25175,7 +24911,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.736659555061627</v>
+        <v>1.716420618318155</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.592263138014073</v>
@@ -25264,7 +25000,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.722766584497569</v>
+        <v>1.711011314559679</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.370533520085617</v>
@@ -25353,7 +25089,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.727632771099879</v>
+        <v>1.710840479933274</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.120976053213854</v>
@@ -25442,7 +25178,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.746994985161027</v>
+        <v>1.732184864765793</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.482722163261752</v>
@@ -25531,7 +25267,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.738545589961342</v>
+        <v>1.725642286785455</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.646063673955335</v>
@@ -25620,7 +25356,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.740204610125163</v>
+        <v>1.726534329218214</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.56285975963563</v>
@@ -25709,7 +25445,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.741952009347922</v>
+        <v>1.728004915413312</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.521866421017696</v>
@@ -25798,7 +25534,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.739844430335938</v>
+        <v>1.728593323649601</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.544060474762555</v>
@@ -25887,7 +25623,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.735258144135248</v>
+        <v>1.723934137504371</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.463984245069772</v>
@@ -25976,7 +25712,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.740599478763258</v>
+        <v>1.727757323612327</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.575658355049903</v>
@@ -26065,7 +25801,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.74888857335553</v>
+        <v>1.737936982980361</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.475184482696182</v>
@@ -26154,7 +25890,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.752502651151288</v>
+        <v>1.745164983787704</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.496857786515778</v>
@@ -26243,7 +25979,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.745991889785151</v>
+        <v>1.739919429970407</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.426343780550795</v>
@@ -26332,7 +26068,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.733338609056902</v>
+        <v>1.731154870646045</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.362151336382687</v>
@@ -26421,7 +26157,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.727023385761793</v>
+        <v>1.735027479288452</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.398086088205377</v>
@@ -26510,7 +26246,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.718486036585674</v>
+        <v>1.732889869047241</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.427237885136407</v>
@@ -26599,7 +26335,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.746013254940486</v>
+        <v>1.759743115929144</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.554235414425717</v>
@@ -26688,7 +26424,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.768971967501042</v>
+        <v>1.7837428233218</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.541516206764463</v>
@@ -26777,7 +26513,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.761750026937308</v>
+        <v>1.772210001760299</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.521701468907527</v>
@@ -26866,7 +26602,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.770229145472463</v>
+        <v>1.780149915483337</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.262626421836606</v>
@@ -26955,7 +26691,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.77099334630189</v>
+        <v>1.784191331709985</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.951409327784867</v>
@@ -27044,7 +26780,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.78573372061491</v>
+        <v>1.792600062690362</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.400136052403059</v>
@@ -27133,7 +26869,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.780833517945168</v>
+        <v>1.793533393735821</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.577028584476849</v>
@@ -27222,7 +26958,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.76948749788287</v>
+        <v>1.785279646717716</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.258393913061595</v>
@@ -27311,7 +27047,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.762003628579209</v>
+        <v>1.780808130151099</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.214886284782797</v>
@@ -27400,7 +27136,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.763127328730287</v>
+        <v>1.781593235592589</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.163048598272005</v>
@@ -27489,7 +27225,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.768004531298737</v>
+        <v>1.788267719866282</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.36833076143471</v>
@@ -27578,7 +27314,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.777213149261918</v>
+        <v>1.797464273735286</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.987088631553021</v>
@@ -27667,7 +27403,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.809440866280074</v>
+        <v>1.824225702004925</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.08028413053657</v>
@@ -27756,7 +27492,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.81164499658874</v>
+        <v>1.824269283327861</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.580366255777254</v>
@@ -27845,7 +27581,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.814617880705759</v>
+        <v>1.823328609731794</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.504187770272996</v>
@@ -27934,7 +27670,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.790964296029917</v>
+        <v>1.798914134532378</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.317793288943012</v>
@@ -28023,7 +27759,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.770428175737667</v>
+        <v>1.773598821443991</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.455820919182895</v>
@@ -28112,7 +27848,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.768043492876598</v>
+        <v>1.77395406574485</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.39697069306648</v>
@@ -28201,7 +27937,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.764931633987958</v>
+        <v>1.767311839174213</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.145573376077566</v>
@@ -28290,7 +28026,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.763366140877753</v>
+        <v>1.766783226802502</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.425677804648581</v>
@@ -28379,7 +28115,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.767790515740804</v>
+        <v>1.770909908921179</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.371375890610884</v>
@@ -28468,7 +28204,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.765561616844651</v>
+        <v>1.768805171482394</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.523780613043162</v>
@@ -28557,7 +28293,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.77552043796175</v>
+        <v>1.776102958251033</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.022362848938545</v>
@@ -28646,7 +28382,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.796175644384226</v>
+        <v>1.793183439316138</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.419993778571425</v>
@@ -28735,7 +28471,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.809746202418441</v>
+        <v>1.804858835148259</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.467236325165604</v>
@@ -28824,7 +28560,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.806882739588984</v>
+        <v>1.801942593782423</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.950776898868031</v>
@@ -28913,7 +28649,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.798819376818781</v>
+        <v>1.796335052215518</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.088179245414034</v>
@@ -29002,7 +28738,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.79992574177898</v>
+        <v>1.79504379383416</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.743255778231387</v>
@@ -29091,7 +28827,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.805535460329737</v>
+        <v>1.795015668635478</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.908404682024829</v>
@@ -29180,7 +28916,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.776958608484781</v>
+        <v>1.777557074773855</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.800713628067393</v>
@@ -29269,7 +29005,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.797217451012229</v>
+        <v>1.79216166024776</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.090010172930141</v>
@@ -29358,7 +29094,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.822976075560854</v>
+        <v>1.825822320583315</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.092600782187008</v>
@@ -29447,7 +29183,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.821931038394845</v>
+        <v>1.819470564275874</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.160610317213949</v>
@@ -29536,7 +29272,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.818216009894615</v>
+        <v>1.822519433201962</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.135639930306301</v>
@@ -29625,7 +29361,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.811373358001909</v>
+        <v>1.819080425524091</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.189521934557375</v>
@@ -29714,7 +29450,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.808963864539594</v>
+        <v>1.817703552395985</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.185049585216538</v>
@@ -29803,7 +29539,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.809543030027678</v>
+        <v>1.817704168585689</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.158116344693502</v>
@@ -29892,7 +29628,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.805755814604015</v>
+        <v>1.81482804229285</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.170372899706009</v>
@@ -29981,7 +29717,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.80051953467494</v>
+        <v>1.808300825299067</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.19487313798943</v>
@@ -30070,7 +29806,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.798795092291943</v>
+        <v>1.803873467903838</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.218850791948328</v>
@@ -30159,7 +29895,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.79543737265297</v>
+        <v>1.804297226491012</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.196341019979052</v>
@@ -30248,7 +29984,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.799517472017802</v>
+        <v>1.80661725199612</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.189937293630705</v>
@@ -30337,7 +30073,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.801141650962907</v>
+        <v>1.8073076301777</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.193766558781023</v>
@@ -30426,7 +30162,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.812511292868272</v>
+        <v>1.816103021748658</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.137898627786701</v>
@@ -30515,7 +30251,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.821278894515545</v>
+        <v>1.820447068082914</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.180790816140194</v>
@@ -30604,7 +30340,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.814018478173902</v>
+        <v>1.81955486120236</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.166468191977981</v>
@@ -30693,7 +30429,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.789252518558791</v>
+        <v>1.791928440595777</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.349883108965401</v>
@@ -30782,7 +30518,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.78087456619316</v>
+        <v>1.784226213587666</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.516263502835004</v>
@@ -30871,7 +30607,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.788260656018388</v>
+        <v>1.789587933095165</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.484189994823388</v>
@@ -30960,7 +30696,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.796421599790835</v>
+        <v>1.792091462484137</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.805257476238676</v>
@@ -31049,7 +30785,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.797436227474787</v>
+        <v>1.79418233689891</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.537707080919846</v>
@@ -31138,7 +30874,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.802315533023357</v>
+        <v>1.793957063541001</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.534878317519523</v>
@@ -31227,7 +30963,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.808943193758885</v>
+        <v>1.798180813935076</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.748822668891679</v>
@@ -31316,7 +31052,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.817018567775443</v>
+        <v>1.805719680501407</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.507356361095928</v>
@@ -31405,7 +31141,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.805913081816442</v>
+        <v>1.798068054788028</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.32065261397903</v>
@@ -31494,7 +31230,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.811405664895722</v>
+        <v>1.802020100200648</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.811667832158245</v>
@@ -31583,7 +31319,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.810942339673545</v>
+        <v>1.800510462365363</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.750711228672546</v>
@@ -31672,7 +31408,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.800593202120981</v>
+        <v>1.793327397622853</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.534078060039712</v>
@@ -31761,7 +31497,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.784834979931956</v>
+        <v>1.782971474371353</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.806837211963015</v>
@@ -31850,7 +31586,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.78107881932838</v>
+        <v>1.78021891119087</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.68013044934845</v>
@@ -31939,7 +31675,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.786202099594338</v>
+        <v>1.775744659126007</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.469527555141565</v>
@@ -32028,7 +31764,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.777793151080869</v>
+        <v>1.766623603005147</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>4.004158561359234</v>
@@ -32314,7 +32050,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.776453392911147</v>
+        <v>1.759275211486718</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.40100991639616</v>
@@ -32403,7 +32139,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.778883803124722</v>
+        <v>1.763596767370697</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.476274882379089</v>
@@ -32492,7 +32228,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.797719415454844</v>
+        <v>1.78492618502025</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.42960567239192</v>
@@ -32581,7 +32317,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.754794759939611</v>
+        <v>1.743195944501761</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.004843609772834</v>
@@ -32670,7 +32406,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.771454553088585</v>
+        <v>1.753811738973583</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.342111982255678</v>
@@ -32759,7 +32495,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.757785028796746</v>
+        <v>1.744157492170506</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.308937122554132</v>
@@ -32848,7 +32584,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.75918335728297</v>
+        <v>1.749093344943332</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.007498361019572</v>
@@ -32937,7 +32673,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.750502703079604</v>
+        <v>1.744469678973969</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.112035236095656</v>
@@ -33026,7 +32762,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.753408766410022</v>
+        <v>1.747050543096941</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.388795704340057</v>
@@ -33115,7 +32851,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.730252283504313</v>
+        <v>1.7226088676514</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.497221996902426</v>
@@ -33204,7 +32940,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.725341530214885</v>
+        <v>1.721898676929191</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.392673092104235</v>
@@ -33293,7 +33029,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.732358851083617</v>
+        <v>1.72878749234595</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.401040862253451</v>
@@ -33382,7 +33118,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.775501273877328</v>
+        <v>1.77333526763524</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.682510665603731</v>
@@ -33471,7 +33207,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.770344886641214</v>
+        <v>1.771963825454782</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.615024566716054</v>
@@ -33560,7 +33296,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.777959035918363</v>
+        <v>1.774371346555955</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.728886744657915</v>
@@ -33649,7 +33385,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.774153200790547</v>
+        <v>1.768526674422822</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.761120641533457</v>
@@ -33738,7 +33474,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.771610492850965</v>
+        <v>1.767158966686879</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.670915170456315</v>
@@ -33827,7 +33563,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.758092597427735</v>
+        <v>1.752568711912055</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.598273870814824</v>
@@ -33916,7 +33652,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.758439456168793</v>
+        <v>1.754315664916266</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.581789905464857</v>
@@ -34005,7 +33741,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.759996969042487</v>
+        <v>1.756621540540844</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.648558649310808</v>
@@ -34094,7 +33830,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.760658854208045</v>
+        <v>1.759342810693646</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.582859384627148</v>
@@ -34183,7 +33919,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.752685581755766</v>
+        <v>1.748794476334725</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.586315089387177</v>
@@ -34272,7 +34008,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.740503293242007</v>
+        <v>1.742381107048593</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.573808273457745</v>
@@ -34361,7 +34097,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.740518446389862</v>
+        <v>1.741900836331965</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.473406129442172</v>
@@ -34450,7 +34186,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.752264679176004</v>
+        <v>1.754443057554254</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.481789981411842</v>
@@ -34539,7 +34275,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.73945155673884</v>
+        <v>1.744879204652446</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.57009210389731</v>
@@ -34628,7 +34364,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.739721591280813</v>
+        <v>1.741686283658289</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.680792774487121</v>
@@ -34717,7 +34453,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.701747573287793</v>
+        <v>1.698802454563523</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.727971344697776</v>
@@ -34806,7 +34542,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.708777196709113</v>
+        <v>1.701707796472316</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.510110986577473</v>
@@ -34895,7 +34631,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.701347454602705</v>
+        <v>1.700098569489616</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.480263589487496</v>
@@ -34984,7 +34720,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.709427785658442</v>
+        <v>1.707456846309048</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.78678213275955</v>
@@ -35073,7 +34809,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.706773570701298</v>
+        <v>1.709530804183875</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.858912702001003</v>
@@ -35162,7 +34898,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.714059082962018</v>
+        <v>1.720058023099662</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.710480281041527</v>
@@ -35251,7 +34987,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.712171275758474</v>
+        <v>1.717381592194511</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.654017941964887</v>
@@ -35340,7 +35076,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.704274903384096</v>
+        <v>1.708168400939245</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.602771016043515</v>
@@ -35429,7 +35165,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.709577477516046</v>
+        <v>1.70933898648571</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.441697229057857</v>
@@ -35518,7 +35254,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.693666695061395</v>
+        <v>1.699109972259686</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.424390684115745</v>
@@ -35607,7 +35343,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.70949149320443</v>
+        <v>1.712186877189097</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.743593355192176</v>
@@ -35696,7 +35432,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.708123786812435</v>
+        <v>1.714327105462548</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.814402643139796</v>
@@ -35785,7 +35521,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.688768899884801</v>
+        <v>1.69735095325296</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.841203804798725</v>
@@ -35874,7 +35610,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.704798822173973</v>
+        <v>1.711695821850089</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.854293583024</v>
@@ -35963,7 +35699,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.70395418057523</v>
+        <v>1.711306279058169</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.76871430792042</v>
@@ -36052,7 +35788,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.709216735875034</v>
+        <v>1.716156260131212</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.936396853040395</v>
@@ -36141,7 +35877,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.717098586728806</v>
+        <v>1.723841676615655</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.501081260397078</v>
@@ -36230,7 +35966,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.72462358339763</v>
+        <v>1.731011983017276</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.821021470336828</v>
@@ -36319,7 +36055,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.729220241952023</v>
+        <v>1.732116233286373</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.905688042405882</v>
@@ -36408,7 +36144,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.717374324925291</v>
+        <v>1.718194686930537</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.888042082143203</v>
@@ -36497,7 +36233,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.724263339787369</v>
+        <v>1.723121434607082</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.996527178821314</v>
@@ -36586,7 +36322,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.732730345045063</v>
+        <v>1.729988766069569</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.712756114884649</v>
@@ -36675,7 +36411,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.744202352920509</v>
+        <v>1.743410472748248</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.823818721316729</v>
@@ -36764,7 +36500,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.775919246131848</v>
+        <v>1.771366190130122</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.085906879907355</v>
@@ -36853,7 +36589,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.790226715972478</v>
+        <v>1.784427507963979</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.987348397587724</v>
@@ -36942,7 +36678,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.806941738302388</v>
+        <v>1.794666397049562</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.052423897909037</v>
@@ -37031,7 +36767,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.811703103360714</v>
+        <v>1.799625093418384</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.958148763189731</v>
@@ -37120,7 +36856,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.80438539482285</v>
+        <v>1.796445768545847</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.113344436569812</v>
@@ -37209,7 +36945,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.796664128135705</v>
+        <v>1.786487483981827</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.110047409338275</v>
@@ -37298,7 +37034,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.79278224809016</v>
+        <v>1.789677852138869</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.294697214322281</v>
@@ -37387,7 +37123,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.775359671072394</v>
+        <v>1.774604923879679</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.221599000813162</v>
@@ -37476,7 +37212,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.754997023849439</v>
+        <v>1.761129307221928</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.222297584619419</v>
@@ -37565,7 +37301,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.755078489326583</v>
+        <v>1.763127057633518</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.220750781195076</v>
@@ -37654,7 +37390,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.754307054213233</v>
+        <v>1.762800569548237</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.225553746236363</v>
@@ -37743,7 +37479,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.772901127338416</v>
+        <v>1.778163721678126</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.983484788458482</v>
@@ -37832,7 +37568,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.76812584531087</v>
+        <v>1.773552353391156</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.170251900355618</v>
@@ -37921,7 +37657,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.763959038932863</v>
+        <v>1.770576253199134</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.081331126587007</v>
@@ -38010,7 +37746,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.761317771547347</v>
+        <v>1.769052038925206</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.124906838359567</v>
@@ -38099,7 +37835,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.765767136922468</v>
+        <v>1.771059956265025</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.266271002046345</v>
@@ -38188,7 +37924,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.762511348940309</v>
+        <v>1.767851737619859</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.2848156401442</v>
@@ -38277,7 +38013,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.763528335760104</v>
+        <v>1.771739927491923</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.986129493605008</v>
@@ -38366,7 +38102,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.773774815313091</v>
+        <v>1.778471748481417</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.242514626698706</v>
@@ -38455,7 +38191,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.787457921608988</v>
+        <v>1.786133212708158</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.376506182452341</v>
@@ -38544,7 +38280,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.78480750504502</v>
+        <v>1.787400687653757</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.556651350629374</v>
@@ -38633,7 +38369,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.770547331411337</v>
+        <v>1.776376387696697</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.629857184892376</v>
@@ -38722,7 +38458,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.803780672552966</v>
+        <v>1.80437075146623</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.268915664517785</v>
@@ -38811,7 +38547,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.788167441533674</v>
+        <v>1.791378057469304</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.954879009120092</v>
@@ -38900,7 +38636,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.783073026782529</v>
+        <v>1.784151450048996</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.137761785358249</v>
@@ -38989,7 +38725,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.787955784569804</v>
+        <v>1.789010843062908</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.8980579274319</v>
@@ -39078,7 +38814,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.784202138204684</v>
+        <v>1.782126730955915</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.145902087455191</v>
@@ -39167,7 +38903,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.783393728359961</v>
+        <v>1.779780124053348</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.139085313512766</v>
@@ -39256,7 +38992,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.78918424002837</v>
+        <v>1.785302638243732</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.080314173167277</v>
@@ -39345,7 +39081,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.779026922924939</v>
+        <v>1.774591880736454</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.169355168593895</v>
@@ -39434,7 +39170,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.779178568305142</v>
+        <v>1.776284098916151</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.118537968320553</v>
@@ -39523,7 +39259,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.778414359029494</v>
+        <v>1.775040904006004</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.155780565113488</v>
@@ -39612,7 +39348,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.779311967068308</v>
+        <v>1.77401346203347</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.94223971797973</v>
@@ -39701,7 +39437,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.781753506730136</v>
+        <v>1.779113359863147</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.136233784484336</v>
@@ -39790,7 +39526,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.780436096715504</v>
+        <v>1.776465292138425</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.930545384259339</v>
@@ -39879,7 +39615,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.785507002640569</v>
+        <v>1.773542667077518</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.052534610357748</v>
@@ -39968,7 +39704,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.796860980401038</v>
+        <v>1.772498452066136</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.175198020453868</v>
@@ -40254,7 +39990,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.72871604674982</v>
+        <v>1.713237315908195</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.204819549026774</v>
@@ -40343,7 +40079,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.728682561477502</v>
+        <v>1.714195237110553</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.138881453531732</v>
@@ -40432,7 +40168,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.729074069979077</v>
+        <v>1.72239313252899</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.062173813120474</v>
@@ -40521,7 +40257,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.649893306808259</v>
+        <v>1.633910983356288</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.231073275754305</v>
@@ -40610,7 +40346,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.633990364823136</v>
+        <v>1.624239818470387</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.815004746020613</v>
@@ -40699,7 +40435,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.615978123529993</v>
+        <v>1.603399869018864</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.944538711936866</v>
@@ -40788,7 +40524,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.612494144180663</v>
+        <v>1.595518496702373</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.82194329743058</v>
@@ -40877,7 +40613,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.598151292793506</v>
+        <v>1.581652759080106</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.026720079907051</v>
@@ -40966,7 +40702,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.596397536427213</v>
+        <v>1.578714046034369</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.210961990280375</v>
@@ -41055,7 +40791,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.59057901222355</v>
+        <v>1.569984418115516</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.98143867571208</v>
@@ -41144,7 +40880,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.591632959605542</v>
+        <v>1.573263610653698</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.203783915423119</v>
@@ -41233,7 +40969,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.58397819014955</v>
+        <v>1.569013476305275</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.122120300688012</v>
@@ -41322,7 +41058,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.72357317374297</v>
+        <v>1.719540318707771</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.238599095919577</v>
@@ -41411,7 +41147,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.705331963957015</v>
+        <v>1.714608164829374</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.281641828454862</v>
@@ -41500,7 +41236,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.702264172858711</v>
+        <v>1.714867801146985</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.269743987450239</v>
@@ -41589,7 +41325,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.698798223427905</v>
+        <v>1.713261635757536</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.239499472434285</v>
@@ -41678,7 +41414,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.696885358261365</v>
+        <v>1.708770714882347</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.230867928668034</v>
@@ -41767,7 +41503,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.69317589480362</v>
+        <v>1.70388184586755</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.281524679034921</v>
@@ -41856,7 +41592,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.707862005563702</v>
+        <v>1.715449941177267</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.226490518376299</v>
@@ -41945,7 +41681,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.711017972801382</v>
+        <v>1.717263677363236</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.244374145212291</v>
@@ -42034,7 +41770,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.705202035840489</v>
+        <v>1.714835226116407</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.280614127140101</v>
@@ -42123,7 +41859,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.698473038917597</v>
+        <v>1.712539067953344</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.219375565894253</v>
@@ -42212,7 +41948,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.687687898089363</v>
+        <v>1.704928663253727</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.205046045391787</v>
@@ -42301,7 +42037,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.686056902895497</v>
+        <v>1.705494741955662</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.207054684351377</v>
@@ -42390,7 +42126,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.685063531968189</v>
+        <v>1.707416470125304</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.217929290548643</v>
@@ -42479,7 +42215,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.686285126608643</v>
+        <v>1.710230374563198</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.281402635375464</v>
@@ -42568,7 +42304,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.691140559688739</v>
+        <v>1.715605716207288</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.192489763665769</v>
@@ -42657,7 +42393,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.5632809397765</v>
+        <v>1.573873689755457</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.330957341770092</v>
@@ -42746,7 +42482,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.571980735527801</v>
+        <v>1.576395982295977</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.89313205622845</v>
@@ -42835,7 +42571,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.58319148559817</v>
+        <v>1.58769353900491</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.74293995634457</v>
@@ -42924,7 +42660,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.579543851524007</v>
+        <v>1.584260095352769</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.893949715276846</v>
@@ -43013,7 +42749,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.576261741598312</v>
+        <v>1.587925168281331</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.984961727879638</v>
@@ -43102,7 +42838,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.572268151715012</v>
+        <v>1.582977655771855</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.941821607874508</v>
@@ -43191,7 +42927,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.56330085269146</v>
+        <v>1.570383948730539</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.952339456332946</v>
@@ -43280,7 +43016,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.561496863253747</v>
+        <v>1.569615369594382</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.902940707843315</v>
@@ -43369,7 +43105,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.574864876073525</v>
+        <v>1.58116184372101</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.977921648900675</v>
@@ -43458,7 +43194,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.591120280605281</v>
+        <v>1.597112552733709</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.101051065564303</v>
@@ -43547,7 +43283,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.61946134964568</v>
+        <v>1.62135160336651</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.252011375957151</v>
@@ -43636,7 +43372,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.622894186053965</v>
+        <v>1.624169712039447</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.28613947018378</v>
@@ -43725,7 +43461,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.623941776267564</v>
+        <v>1.622338626712827</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.029434153729639</v>
@@ -43814,7 +43550,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.636561509512992</v>
+        <v>1.633647581062519</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.369535201351407</v>
@@ -43903,7 +43639,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.642376243647717</v>
+        <v>1.637216634630996</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.009707528815626</v>
@@ -43992,7 +43728,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.65648220021878</v>
+        <v>1.650924265710709</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.607672788394284</v>
@@ -44081,7 +43817,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.659593218235192</v>
+        <v>1.659790243049685</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.339013183956146</v>
@@ -44170,7 +43906,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.655554197393357</v>
+        <v>1.656105409389733</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.359575082943865</v>
@@ -44259,7 +43995,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.661471824185734</v>
+        <v>1.662638413526853</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.270096703098738</v>
@@ -44348,7 +44084,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.66640285382254</v>
+        <v>1.662562449538163</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.540501867230093</v>
@@ -44437,7 +44173,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.679735785340549</v>
+        <v>1.681466376633383</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.532900451872562</v>
@@ -44526,7 +44262,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.693050332545782</v>
+        <v>1.70049917849733</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.478152012293716</v>
@@ -44615,7 +44351,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.700916884920035</v>
+        <v>1.707070870663932</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.713175568931901</v>
@@ -44704,7 +44440,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.707937721627438</v>
+        <v>1.714616467398</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.426970792476506</v>
@@ -44793,7 +44529,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.712334089451048</v>
+        <v>1.719413057689718</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.95198645778916</v>
@@ -44882,7 +44618,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.713672057579311</v>
+        <v>1.719185620558604</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.300939140953128</v>
@@ -44971,7 +44707,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.717409035359222</v>
+        <v>1.726237812026517</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.66610808203421</v>
@@ -45060,7 +44796,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.696798955394035</v>
+        <v>1.712014209885284</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.398195266066182</v>
@@ -45149,7 +44885,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.688573613746314</v>
+        <v>1.7017511041013</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.658377426173563</v>
@@ -45238,7 +44974,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.69190138755335</v>
+        <v>1.703072804442803</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.352292693793748</v>
@@ -45327,7 +45063,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.672471050671643</v>
+        <v>1.681850750758257</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.407772005362568</v>
@@ -45416,7 +45152,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.659930317599973</v>
+        <v>1.680820040664863</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.106532030306379</v>
@@ -45505,7 +45241,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.657018380297774</v>
+        <v>1.677772646853757</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.193878734612337</v>
@@ -45594,7 +45330,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.655682989805173</v>
+        <v>1.674201978246631</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.223479823555658</v>
@@ -45683,7 +45419,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.650554262574773</v>
+        <v>1.670614256063222</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.192316465707794</v>
@@ -45772,7 +45508,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.649761031841682</v>
+        <v>1.664204883470277</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.070894613149592</v>
@@ -45861,7 +45597,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.633124098902976</v>
+        <v>1.649261778279953</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.191430612678133</v>
@@ -45950,7 +45686,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.638041553258745</v>
+        <v>1.650024253513231</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.387836947101964</v>
@@ -46039,7 +45775,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.640852287118504</v>
+        <v>1.653257522615984</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.21186336092379</v>
@@ -46128,7 +45864,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.635943472040274</v>
+        <v>1.647937118274202</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.400637815855625</v>
@@ -46217,7 +45953,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.641936184533142</v>
+        <v>1.654779592597011</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.200630956564348</v>
@@ -46306,7 +46042,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.649215050622314</v>
+        <v>1.659892556559726</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.126466811483868</v>
@@ -46395,7 +46131,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.661085567106481</v>
+        <v>1.670762356227177</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.430562151619487</v>
@@ -46484,7 +46220,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.663382665711867</v>
+        <v>1.677751734161904</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.192404613374112</v>
@@ -46573,7 +46309,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.631953200974073</v>
+        <v>1.655759865647373</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.306621987645688</v>
@@ -46662,7 +46398,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.680937190289167</v>
+        <v>1.701990411467199</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.658157723019574</v>
@@ -46751,7 +46487,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.676208782581412</v>
+        <v>1.699511078644832</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.670071204012321</v>
@@ -46840,7 +46576,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.667915396714887</v>
+        <v>1.693089226129338</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.565296092833189</v>
@@ -46929,7 +46665,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.668944136483764</v>
+        <v>1.698932418857768</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.742198655820241</v>
@@ -47018,7 +46754,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.662596530939942</v>
+        <v>1.695696832733917</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.73524238535453</v>
@@ -47107,7 +46843,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.66475681431053</v>
+        <v>1.699973692754974</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.612442863377903</v>
@@ -47196,7 +46932,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.68201455368147</v>
+        <v>1.715967409897568</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.486498758595614</v>
@@ -47285,7 +47021,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.672688012205743</v>
+        <v>1.707936817967741</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.744513578552133</v>
@@ -47374,7 +47110,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.665122520132264</v>
+        <v>1.702244691030381</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.777243972601024</v>
@@ -47463,7 +47199,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.671516871105793</v>
+        <v>1.70749590318107</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.665065907125971</v>
@@ -47552,7 +47288,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.665839543800008</v>
+        <v>1.700768590470945</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.743955626783127</v>
@@ -47641,7 +47377,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.657267937890531</v>
+        <v>1.690773905856892</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.721882495465173</v>
@@ -47730,7 +47466,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.659010943925588</v>
+        <v>1.691839975250549</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.56266228882021</v>
@@ -47819,7 +47555,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.647720949737179</v>
+        <v>1.678971630421082</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.502117643172037</v>
@@ -47908,7 +47644,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.669209975838941</v>
+        <v>1.6877633792484</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.596890852125781</v>
@@ -48194,7 +47930,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.562679571081504</v>
+        <v>1.572782211800041</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.472087800515896</v>
@@ -48283,7 +48019,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.596568547686694</v>
+        <v>1.60974782987426</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.889987944539747</v>
@@ -48372,7 +48108,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.635207521510049</v>
+        <v>1.651740306938003</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.531479920377756</v>
@@ -48461,7 +48197,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.645786479631023</v>
+        <v>1.655445940768562</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.741994587399108</v>
@@ -48550,7 +48286,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.647733070366106</v>
+        <v>1.657495887201673</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.956038348443998</v>
@@ -48639,7 +48375,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.633356639831705</v>
+        <v>1.640008096040663</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.914457072905882</v>
@@ -48728,7 +48464,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.626190547779589</v>
+        <v>1.636148058725009</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.64375645825519</v>
@@ -48817,7 +48553,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.606636448701185</v>
+        <v>1.619434106901784</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.493819016977377</v>
@@ -48906,7 +48642,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.616570808632037</v>
+        <v>1.631253774611845</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.746732633501396</v>
@@ -48995,7 +48731,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.610677874629052</v>
+        <v>1.623469710815148</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.658365577785668</v>
@@ -49084,7 +48820,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.616925855542475</v>
+        <v>1.630326960014135</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.742821874446558</v>
@@ -49173,7 +48909,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.629460885304182</v>
+        <v>1.645688445936081</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.496487154011634</v>
@@ -49262,7 +48998,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.607947356778899</v>
+        <v>1.627341207977978</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.71446195108538</v>
@@ -49351,7 +49087,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.577822817484264</v>
+        <v>1.600247315936486</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.594277276537063</v>
@@ -49440,7 +49176,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.574419999256825</v>
+        <v>1.59861012377388</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.523846127544732</v>
@@ -49529,7 +49265,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.562288002665188</v>
+        <v>1.584258875567431</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.737050639707811</v>
@@ -49618,7 +49354,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.549713629268777</v>
+        <v>1.571683214542824</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.738737750096851</v>
@@ -49707,7 +49443,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.535354572559383</v>
+        <v>1.555457905826375</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.590388503213224</v>
@@ -49796,7 +49532,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.532348953909409</v>
+        <v>1.553814133951092</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.64386800031891</v>
@@ -49885,7 +49621,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.538742770631935</v>
+        <v>1.56183068825659</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.685911853490049</v>
@@ -49974,7 +49710,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.538354823800747</v>
+        <v>1.564123275682691</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.45957635876893</v>
@@ -50063,7 +49799,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.535124968603508</v>
+        <v>1.560212848072742</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.48762359960807</v>
@@ -50152,7 +49888,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.515366735742872</v>
+        <v>1.541653372285893</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.316305226840774</v>
@@ -50241,7 +49977,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.512162644332375</v>
+        <v>1.542353846906926</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.342251813884015</v>
@@ -50330,7 +50066,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.51414470897209</v>
+        <v>1.544882022657304</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.390319413349917</v>
@@ -50419,7 +50155,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.507038440447459</v>
+        <v>1.535503326689027</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.38433439070453</v>
@@ -50508,7 +50244,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.514632158209883</v>
+        <v>1.538410671969608</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.470265698386694</v>
@@ -50597,7 +50333,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.538958921321544</v>
+        <v>1.559652513452539</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.354500958336962</v>
@@ -50686,7 +50422,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.560310255189398</v>
+        <v>1.583228961949668</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.200465686212429</v>
@@ -50775,7 +50511,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.566222263115597</v>
+        <v>1.5887613143382</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.164189157267683</v>
@@ -50864,7 +50600,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.599327979503598</v>
+        <v>1.61906958654694</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.229109071458809</v>
@@ -50953,7 +50689,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.593785116939507</v>
+        <v>1.61947875941892</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.31603018668114</v>
@@ -51042,7 +50778,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.587992589184748</v>
+        <v>1.616658199989243</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.388167648277435</v>
@@ -51131,7 +50867,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.57751992170336</v>
+        <v>1.605163719649757</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.340889497335473</v>
@@ -51220,7 +50956,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.572753894271065</v>
+        <v>1.599834175260159</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.38319810691571</v>
@@ -51309,7 +51045,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59124422919107</v>
+        <v>1.618132142381313</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.320330905998801</v>
@@ -51398,7 +51134,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.606918082818944</v>
+        <v>1.63546581063333</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.302833497904076</v>
@@ -51487,7 +51223,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.682140463268659</v>
+        <v>1.704343228711341</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.445051641662392</v>
@@ -51576,7 +51312,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.671519702717306</v>
+        <v>1.696170132605469</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.585202544975341</v>
@@ -51665,7 +51401,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.67996309009553</v>
+        <v>1.706643912655612</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.671288153703025</v>
@@ -51754,7 +51490,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.695064040354211</v>
+        <v>1.723946857132485</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.534072999871519</v>
@@ -51843,7 +51579,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.699211573077798</v>
+        <v>1.730230636116187</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.570369465458076</v>
@@ -51932,7 +51668,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.698890650089308</v>
+        <v>1.730877270441304</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.627067865853789</v>
@@ -52021,7 +51757,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.683159772497883</v>
+        <v>1.715541446581629</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.707683580566608</v>
@@ -52110,7 +51846,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.701968879177167</v>
+        <v>1.736452503036002</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.649070861758577</v>
@@ -52199,7 +51935,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.711784816070843</v>
+        <v>1.747449847521186</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.711931686639199</v>
@@ -52288,7 +52024,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.709839134624866</v>
+        <v>1.745727819246038</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.543562073566958</v>
@@ -52377,7 +52113,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.742708474554587</v>
+        <v>1.776771815443202</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.548005726075712</v>
@@ -52466,7 +52202,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.783476397198103</v>
+        <v>1.816305175160312</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.551048477144876</v>
@@ -52555,7 +52291,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.808343461001439</v>
+        <v>1.840134796985754</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.107543208636471</v>
@@ -52644,7 +52380,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.812294579820829</v>
+        <v>1.845289342952006</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.369208415479601</v>
@@ -52733,7 +52469,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.794924294088293</v>
+        <v>1.829202687798037</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.749481434164716</v>
@@ -52822,7 +52558,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.787822614981752</v>
+        <v>1.820346085235184</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.871379420071063</v>
@@ -52911,7 +52647,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.746824207529325</v>
+        <v>1.789197228677909</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.923165295008973</v>
@@ -53000,7 +52736,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.553956012763784</v>
+        <v>1.599085914881934</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.915742379901213</v>
@@ -53089,7 +52825,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.549763113689978</v>
+        <v>1.593381275035288</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.899436160705173</v>
@@ -53178,7 +52914,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.541752106189443</v>
+        <v>1.588453368362367</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.891137954878156</v>
@@ -53267,7 +53003,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.524994103846495</v>
+        <v>1.56293454421591</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.928755314895369</v>
@@ -53356,7 +53092,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.495134515307142</v>
+        <v>1.536875117558144</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.914056471674909</v>
@@ -53445,7 +53181,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.494863406194227</v>
+        <v>1.535473640059834</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.93303394808708</v>
@@ -53534,7 +53270,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.492477742404928</v>
+        <v>1.532950621721362</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.920743079441288</v>
@@ -53623,7 +53359,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.483732098199994</v>
+        <v>1.521445536039659</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.898901590059642</v>
@@ -53712,7 +53448,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.474823624658705</v>
+        <v>1.512022012558972</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.902231353788228</v>
@@ -53801,7 +53537,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.476722450126053</v>
+        <v>1.514696043509925</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.940882778431384</v>
@@ -53890,7 +53626,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.476763313020246</v>
+        <v>1.514548152337626</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.909293472581295</v>
@@ -53979,7 +53715,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.46832298709524</v>
+        <v>1.504714240321541</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.92133965679092</v>
@@ -54068,7 +53804,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.473793571851397</v>
+        <v>1.511338884523105</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.90117409790549</v>
@@ -54157,7 +53893,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.478951862854747</v>
+        <v>1.519044773672038</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.929395805623885</v>
@@ -54246,7 +53982,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.564205484336997</v>
+        <v>1.594061248009522</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.932473101690093</v>
@@ -54335,7 +54071,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.625592913548516</v>
+        <v>1.661123460184642</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.378237246801643</v>
@@ -54424,7 +54160,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.618286927748978</v>
+        <v>1.660206908423561</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.422529540243105</v>
@@ -54513,7 +54249,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.616184597676172</v>
+        <v>1.658119856788306</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.419833403744308</v>
@@ -54602,7 +54338,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.652149460233452</v>
+        <v>1.698091542345796</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.423551921099678</v>
@@ -54691,7 +54427,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.674641853877896</v>
+        <v>1.721884132094717</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.358108206458823</v>
@@ -54780,7 +54516,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.660758758637606</v>
+        <v>1.704982089961125</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.492524223250352</v>
@@ -54869,7 +54605,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.660180880300031</v>
+        <v>1.707974832731499</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.412823410503065</v>
@@ -54958,7 +54694,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.67131608692345</v>
+        <v>1.717944616772696</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.49778575506614</v>
@@ -55047,7 +54783,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.684027821877651</v>
+        <v>1.730164497530376</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.431393453452594</v>
@@ -55136,7 +54872,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.683521776144889</v>
+        <v>1.728648859563321</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.509874430387393</v>
@@ -55225,7 +54961,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.662130374477558</v>
+        <v>1.706215876627862</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.491853512018456</v>
@@ -55314,7 +55050,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.670407680144753</v>
+        <v>1.715409210917407</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.509236769347557</v>
@@ -55403,7 +55139,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.672764111263619</v>
+        <v>1.71590689816197</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.476994221010761</v>
@@ -55492,7 +55228,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.664150932072653</v>
+        <v>1.707702839495304</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.449804893554804</v>
@@ -55581,7 +55317,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.653211322482737</v>
+        <v>1.694249810609461</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.544574944299808</v>
@@ -55670,7 +55406,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.652977224355345</v>
+        <v>1.696152757812073</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.718639354141061</v>
@@ -55759,7 +55495,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.677867769252548</v>
+        <v>1.71413977324511</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.875467279066352</v>
@@ -55848,7 +55584,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.646934685527941</v>
+        <v>1.675423535083095</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.789464532024038</v>
